--- a/data/denmark_google_mobility.xlsx
+++ b/data/denmark_google_mobility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t>country_region</t>
   </si>
@@ -42,16 +42,1441 @@
   </si>
   <si>
     <t>Denmark</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-04-02</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-04-04</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-19</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>2020-10-03</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
+  </si>
+  <si>
+    <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-14</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-03-11</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021-03-14</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-03-27</t>
+  </si>
+  <si>
+    <t>2021-03-28</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>2021-04-03</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -91,12 +1516,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -435,8 +1859,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>43876</v>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>-2</v>
@@ -464,8 +1888,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>43877</v>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>-7</v>
@@ -493,8 +1917,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>43878</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>-3</v>
@@ -522,8 +1946,8 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>43879</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -551,8 +1975,8 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>43880</v>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -580,8 +2004,8 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>43881</v>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -609,8 +2033,8 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>43882</v>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -638,8 +2062,8 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>43883</v>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
       <c r="D9" t="n">
         <v>-6</v>
@@ -667,8 +2091,8 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>43884</v>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -696,8 +2120,8 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>43885</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>-2</v>
@@ -725,8 +2149,8 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>43886</v>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>-3</v>
@@ -754,8 +2178,8 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>43887</v>
+      <c r="C13" t="s">
+        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>-2</v>
@@ -783,8 +2207,8 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>43888</v>
+      <c r="C14" t="s">
+        <v>21</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -812,8 +2236,8 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>43889</v>
+      <c r="C15" t="s">
+        <v>22</v>
       </c>
       <c r="D15" t="n">
         <v>17</v>
@@ -841,8 +2265,8 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>43890</v>
+      <c r="C16" t="s">
+        <v>23</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
@@ -870,8 +2294,8 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>43833</v>
+      <c r="C17" t="s">
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>21</v>
@@ -899,8 +2323,8 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>43864</v>
+      <c r="C18" t="s">
+        <v>25</v>
       </c>
       <c r="D18" t="n">
         <v>11</v>
@@ -928,8 +2352,8 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>43893</v>
+      <c r="C19" t="s">
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
@@ -957,8 +2381,8 @@
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>43924</v>
+      <c r="C20" t="s">
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -986,8 +2410,8 @@
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>43954</v>
+      <c r="C21" t="s">
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -1015,8 +2439,8 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>43985</v>
+      <c r="C22" t="s">
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>7</v>
@@ -1044,8 +2468,8 @@
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>44015</v>
+      <c r="C23" t="s">
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
@@ -1073,8 +2497,8 @@
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>44046</v>
+      <c r="C24" t="s">
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>11</v>
@@ -1102,8 +2526,8 @@
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>44077</v>
+      <c r="C25" t="s">
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
@@ -1131,8 +2555,8 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>44107</v>
+      <c r="C26" t="s">
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>3</v>
@@ -1160,8 +2584,8 @@
       <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>44138</v>
+      <c r="C27" t="s">
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>5</v>
@@ -1189,8 +2613,8 @@
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>44168</v>
+      <c r="C28" t="s">
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>-11</v>
@@ -1218,8 +2642,8 @@
       <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>43903</v>
+      <c r="C29" t="s">
+        <v>36</v>
       </c>
       <c r="D29" t="n">
         <v>-28</v>
@@ -1247,8 +2671,8 @@
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>43904</v>
+      <c r="C30" t="s">
+        <v>37</v>
       </c>
       <c r="D30" t="n">
         <v>-31</v>
@@ -1276,8 +2700,8 @@
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>43905</v>
+      <c r="C31" t="s">
+        <v>38</v>
       </c>
       <c r="D31" t="n">
         <v>-33</v>
@@ -1305,8 +2729,8 @@
       <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>43906</v>
+      <c r="C32" t="s">
+        <v>39</v>
       </c>
       <c r="D32" t="n">
         <v>-24</v>
@@ -1334,8 +2758,8 @@
       <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>43907</v>
+      <c r="C33" t="s">
+        <v>40</v>
       </c>
       <c r="D33" t="n">
         <v>-25</v>
@@ -1363,8 +2787,8 @@
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>43908</v>
+      <c r="C34" t="s">
+        <v>41</v>
       </c>
       <c r="D34" t="n">
         <v>-41</v>
@@ -1392,8 +2816,8 @@
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>43909</v>
+      <c r="C35" t="s">
+        <v>42</v>
       </c>
       <c r="D35" t="n">
         <v>-39</v>
@@ -1421,8 +2845,8 @@
       <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>43910</v>
+      <c r="C36" t="s">
+        <v>43</v>
       </c>
       <c r="D36" t="n">
         <v>-44</v>
@@ -1450,8 +2874,8 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>43911</v>
+      <c r="C37" t="s">
+        <v>44</v>
       </c>
       <c r="D37" t="n">
         <v>-48</v>
@@ -1479,8 +2903,8 @@
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>43912</v>
+      <c r="C38" t="s">
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>-38</v>
@@ -1508,8 +2932,8 @@
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>43913</v>
+      <c r="C39" t="s">
+        <v>46</v>
       </c>
       <c r="D39" t="n">
         <v>-36</v>
@@ -1537,8 +2961,8 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>43914</v>
+      <c r="C40" t="s">
+        <v>47</v>
       </c>
       <c r="D40" t="n">
         <v>-36</v>
@@ -1566,8 +2990,8 @@
       <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>43915</v>
+      <c r="C41" t="s">
+        <v>48</v>
       </c>
       <c r="D41" t="n">
         <v>-37</v>
@@ -1595,8 +3019,8 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>43916</v>
+      <c r="C42" t="s">
+        <v>49</v>
       </c>
       <c r="D42" t="n">
         <v>-36</v>
@@ -1624,8 +3048,8 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>43917</v>
+      <c r="C43" t="s">
+        <v>50</v>
       </c>
       <c r="D43" t="n">
         <v>-39</v>
@@ -1653,8 +3077,8 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>43918</v>
+      <c r="C44" t="s">
+        <v>51</v>
       </c>
       <c r="D44" t="n">
         <v>-43</v>
@@ -1682,8 +3106,8 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>43919</v>
+      <c r="C45" t="s">
+        <v>52</v>
       </c>
       <c r="D45" t="n">
         <v>-37</v>
@@ -1711,8 +3135,8 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>43920</v>
+      <c r="C46" t="s">
+        <v>53</v>
       </c>
       <c r="D46" t="n">
         <v>-33</v>
@@ -1740,8 +3164,8 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>43921</v>
+      <c r="C47" t="s">
+        <v>54</v>
       </c>
       <c r="D47" t="n">
         <v>-23</v>
@@ -1769,8 +3193,8 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>43834</v>
+      <c r="C48" t="s">
+        <v>55</v>
       </c>
       <c r="D48" t="n">
         <v>-32</v>
@@ -1798,8 +3222,8 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>43865</v>
+      <c r="C49" t="s">
+        <v>56</v>
       </c>
       <c r="D49" t="n">
         <v>-34</v>
@@ -1827,8 +3251,8 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>43894</v>
+      <c r="C50" t="s">
+        <v>57</v>
       </c>
       <c r="D50" t="n">
         <v>-35</v>
@@ -1856,8 +3280,8 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>43925</v>
+      <c r="C51" t="s">
+        <v>58</v>
       </c>
       <c r="D51" t="n">
         <v>-38</v>
@@ -1885,8 +3309,8 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>43955</v>
+      <c r="C52" t="s">
+        <v>59</v>
       </c>
       <c r="D52" t="n">
         <v>-22</v>
@@ -1914,8 +3338,8 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>43986</v>
+      <c r="C53" t="s">
+        <v>60</v>
       </c>
       <c r="D53" t="n">
         <v>-15</v>
@@ -1943,8 +3367,8 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>44016</v>
+      <c r="C54" t="s">
+        <v>61</v>
       </c>
       <c r="D54" t="n">
         <v>-13</v>
@@ -1972,8 +3396,8 @@
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>44047</v>
+      <c r="C55" t="s">
+        <v>62</v>
       </c>
       <c r="D55" t="n">
         <v>-9</v>
@@ -2001,8 +3425,8 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>44078</v>
+      <c r="C56" t="s">
+        <v>63</v>
       </c>
       <c r="D56" t="n">
         <v>-40</v>
@@ -2030,8 +3454,8 @@
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>44108</v>
+      <c r="C57" t="s">
+        <v>64</v>
       </c>
       <c r="D57" t="n">
         <v>-60</v>
@@ -2059,8 +3483,8 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>44139</v>
+      <c r="C58" t="s">
+        <v>65</v>
       </c>
       <c r="D58" t="n">
         <v>-31</v>
@@ -2088,8 +3512,8 @@
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>44169</v>
+      <c r="C59" t="s">
+        <v>66</v>
       </c>
       <c r="D59" t="n">
         <v>-36</v>
@@ -2117,8 +3541,8 @@
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>43934</v>
+      <c r="C60" t="s">
+        <v>67</v>
       </c>
       <c r="D60" t="n">
         <v>-56</v>
@@ -2146,8 +3570,8 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>43935</v>
+      <c r="C61" t="s">
+        <v>68</v>
       </c>
       <c r="D61" t="n">
         <v>-15</v>
@@ -2175,8 +3599,8 @@
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>43936</v>
+      <c r="C62" t="s">
+        <v>69</v>
       </c>
       <c r="D62" t="n">
         <v>-23</v>
@@ -2204,8 +3628,8 @@
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>43937</v>
+      <c r="C63" t="s">
+        <v>70</v>
       </c>
       <c r="D63" t="n">
         <v>-23</v>
@@ -2233,8 +3657,8 @@
       <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>43938</v>
+      <c r="C64" t="s">
+        <v>71</v>
       </c>
       <c r="D64" t="n">
         <v>-26</v>
@@ -2262,8 +3686,8 @@
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>43939</v>
+      <c r="C65" t="s">
+        <v>72</v>
       </c>
       <c r="D65" t="n">
         <v>-33</v>
@@ -2291,8 +3715,8 @@
       <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>43940</v>
+      <c r="C66" t="s">
+        <v>73</v>
       </c>
       <c r="D66" t="n">
         <v>-21</v>
@@ -2320,8 +3744,8 @@
       <c r="B67" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>43941</v>
+      <c r="C67" t="s">
+        <v>74</v>
       </c>
       <c r="D67" t="n">
         <v>-14</v>
@@ -2349,8 +3773,8 @@
       <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>43942</v>
+      <c r="C68" t="s">
+        <v>75</v>
       </c>
       <c r="D68" t="n">
         <v>-15</v>
@@ -2378,8 +3802,8 @@
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>43943</v>
+      <c r="C69" t="s">
+        <v>76</v>
       </c>
       <c r="D69" t="n">
         <v>-18</v>
@@ -2407,8 +3831,8 @@
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>43944</v>
+      <c r="C70" t="s">
+        <v>77</v>
       </c>
       <c r="D70" t="n">
         <v>-18</v>
@@ -2436,8 +3860,8 @@
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>43945</v>
+      <c r="C71" t="s">
+        <v>78</v>
       </c>
       <c r="D71" t="n">
         <v>-25</v>
@@ -2465,8 +3889,8 @@
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>43946</v>
+      <c r="C72" t="s">
+        <v>79</v>
       </c>
       <c r="D72" t="n">
         <v>-29</v>
@@ -2494,8 +3918,8 @@
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>43947</v>
+      <c r="C73" t="s">
+        <v>80</v>
       </c>
       <c r="D73" t="n">
         <v>-22</v>
@@ -2523,8 +3947,8 @@
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>43948</v>
+      <c r="C74" t="s">
+        <v>81</v>
       </c>
       <c r="D74" t="n">
         <v>-20</v>
@@ -2552,8 +3976,8 @@
       <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>43949</v>
+      <c r="C75" t="s">
+        <v>82</v>
       </c>
       <c r="D75" t="n">
         <v>-20</v>
@@ -2581,8 +4005,8 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>43950</v>
+      <c r="C76" t="s">
+        <v>83</v>
       </c>
       <c r="D76" t="n">
         <v>-26</v>
@@ -2610,8 +4034,8 @@
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>43951</v>
+      <c r="C77" t="s">
+        <v>84</v>
       </c>
       <c r="D77" t="n">
         <v>-28</v>
@@ -2639,8 +4063,8 @@
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>43835</v>
+      <c r="C78" t="s">
+        <v>85</v>
       </c>
       <c r="D78" t="n">
         <v>-29</v>
@@ -2668,8 +4092,8 @@
       <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>43866</v>
+      <c r="C79" t="s">
+        <v>86</v>
       </c>
       <c r="D79" t="n">
         <v>-34</v>
@@ -2697,8 +4121,8 @@
       <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>43895</v>
+      <c r="C80" t="s">
+        <v>87</v>
       </c>
       <c r="D80" t="n">
         <v>-20</v>
@@ -2726,8 +4150,8 @@
       <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>43926</v>
+      <c r="C81" t="s">
+        <v>88</v>
       </c>
       <c r="D81" t="n">
         <v>-21</v>
@@ -2755,8 +4179,8 @@
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>43956</v>
+      <c r="C82" t="s">
+        <v>89</v>
       </c>
       <c r="D82" t="n">
         <v>-22</v>
@@ -2784,8 +4208,8 @@
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>43987</v>
+      <c r="C83" t="s">
+        <v>90</v>
       </c>
       <c r="D83" t="n">
         <v>-22</v>
@@ -2813,8 +4237,8 @@
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>44017</v>
+      <c r="C84" t="s">
+        <v>91</v>
       </c>
       <c r="D84" t="n">
         <v>-12</v>
@@ -2842,8 +4266,8 @@
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>44048</v>
+      <c r="C85" t="s">
+        <v>92</v>
       </c>
       <c r="D85" t="n">
         <v>-56</v>
@@ -2871,8 +4295,8 @@
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>44079</v>
+      <c r="C86" t="s">
+        <v>93</v>
       </c>
       <c r="D86" t="n">
         <v>-22</v>
@@ -2900,8 +4324,8 @@
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>44109</v>
+      <c r="C87" t="s">
+        <v>94</v>
       </c>
       <c r="D87" t="n">
         <v>-17</v>
@@ -2929,8 +4353,8 @@
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>44140</v>
+      <c r="C88" t="s">
+        <v>95</v>
       </c>
       <c r="D88" t="n">
         <v>-16</v>
@@ -2958,8 +4382,8 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>44170</v>
+      <c r="C89" t="s">
+        <v>96</v>
       </c>
       <c r="D89" t="n">
         <v>-21</v>
@@ -2987,8 +4411,8 @@
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>43964</v>
+      <c r="C90" t="s">
+        <v>97</v>
       </c>
       <c r="D90" t="n">
         <v>-20</v>
@@ -3016,8 +4440,8 @@
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>43965</v>
+      <c r="C91" t="s">
+        <v>98</v>
       </c>
       <c r="D91" t="n">
         <v>-19</v>
@@ -3045,8 +4469,8 @@
       <c r="B92" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>43966</v>
+      <c r="C92" t="s">
+        <v>99</v>
       </c>
       <c r="D92" t="n">
         <v>-25</v>
@@ -3074,8 +4498,8 @@
       <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>43967</v>
+      <c r="C93" t="s">
+        <v>100</v>
       </c>
       <c r="D93" t="n">
         <v>-30</v>
@@ -3103,8 +4527,8 @@
       <c r="B94" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>43968</v>
+      <c r="C94" t="s">
+        <v>101</v>
       </c>
       <c r="D94" t="n">
         <v>-22</v>
@@ -3132,8 +4556,8 @@
       <c r="B95" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>43969</v>
+      <c r="C95" t="s">
+        <v>102</v>
       </c>
       <c r="D95" t="n">
         <v>-13</v>
@@ -3161,8 +4585,8 @@
       <c r="B96" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>43970</v>
+      <c r="C96" t="s">
+        <v>103</v>
       </c>
       <c r="D96" t="n">
         <v>-9</v>
@@ -3190,8 +4614,8 @@
       <c r="B97" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>43971</v>
+      <c r="C97" t="s">
+        <v>104</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -3219,8 +4643,8 @@
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>43972</v>
+      <c r="C98" t="s">
+        <v>105</v>
       </c>
       <c r="D98" t="n">
         <v>-38</v>
@@ -3248,8 +4672,8 @@
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>43973</v>
+      <c r="C99" t="s">
+        <v>106</v>
       </c>
       <c r="D99" t="n">
         <v>-7</v>
@@ -3277,8 +4701,8 @@
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>43974</v>
+      <c r="C100" t="s">
+        <v>107</v>
       </c>
       <c r="D100" t="n">
         <v>-17</v>
@@ -3306,8 +4730,8 @@
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>43975</v>
+      <c r="C101" t="s">
+        <v>108</v>
       </c>
       <c r="D101" t="n">
         <v>-15</v>
@@ -3335,8 +4759,8 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>43976</v>
+      <c r="C102" t="s">
+        <v>109</v>
       </c>
       <c r="D102" t="n">
         <v>-5</v>
@@ -3364,8 +4788,8 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="2" t="n">
-        <v>43977</v>
+      <c r="C103" t="s">
+        <v>110</v>
       </c>
       <c r="D103" t="n">
         <v>-4</v>
@@ -3393,8 +4817,8 @@
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>43978</v>
+      <c r="C104" t="s">
+        <v>111</v>
       </c>
       <c r="D104" t="n">
         <v>-6</v>
@@ -3422,8 +4846,8 @@
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="2" t="n">
-        <v>43979</v>
+      <c r="C105" t="s">
+        <v>112</v>
       </c>
       <c r="D105" t="n">
         <v>-2</v>
@@ -3451,8 +4875,8 @@
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>43980</v>
+      <c r="C106" t="s">
+        <v>113</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -3480,8 +4904,8 @@
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="2" t="n">
-        <v>43981</v>
+      <c r="C107" t="s">
+        <v>114</v>
       </c>
       <c r="D107" t="n">
         <v>-3</v>
@@ -3509,8 +4933,8 @@
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="2" t="n">
-        <v>43982</v>
+      <c r="C108" t="s">
+        <v>115</v>
       </c>
       <c r="D108" t="n">
         <v>-20</v>
@@ -3538,8 +4962,8 @@
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="2" t="n">
-        <v>43836</v>
+      <c r="C109" t="s">
+        <v>116</v>
       </c>
       <c r="D109" t="n">
         <v>-31</v>
@@ -3567,8 +4991,8 @@
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="2" t="n">
-        <v>43867</v>
+      <c r="C110" t="s">
+        <v>117</v>
       </c>
       <c r="D110" t="n">
         <v>15</v>
@@ -3596,8 +5020,8 @@
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="2" t="n">
-        <v>43896</v>
+      <c r="C111" t="s">
+        <v>118</v>
       </c>
       <c r="D111" t="n">
         <v>5</v>
@@ -3625,8 +5049,8 @@
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="2" t="n">
-        <v>43927</v>
+      <c r="C112" t="s">
+        <v>119</v>
       </c>
       <c r="D112" t="n">
         <v>10</v>
@@ -3654,8 +5078,8 @@
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="2" t="n">
-        <v>43957</v>
+      <c r="C113" t="s">
+        <v>120</v>
       </c>
       <c r="D113" t="n">
         <v>-37</v>
@@ -3683,8 +5107,8 @@
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="2" t="n">
-        <v>43988</v>
+      <c r="C114" t="s">
+        <v>121</v>
       </c>
       <c r="D114" t="n">
         <v>-1</v>
@@ -3712,8 +5136,8 @@
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="C115" s="2" t="n">
-        <v>44018</v>
+      <c r="C115" t="s">
+        <v>122</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -3741,8 +5165,8 @@
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="2" t="n">
-        <v>44049</v>
+      <c r="C116" t="s">
+        <v>123</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -3770,8 +5194,8 @@
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="2" t="n">
-        <v>44080</v>
+      <c r="C117" t="s">
+        <v>124</v>
       </c>
       <c r="D117" t="n">
         <v>4</v>
@@ -3799,8 +5223,8 @@
       <c r="B118" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="2" t="n">
-        <v>44110</v>
+      <c r="C118" t="s">
+        <v>125</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -3828,8 +5252,8 @@
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="2" t="n">
-        <v>44141</v>
+      <c r="C119" t="s">
+        <v>126</v>
       </c>
       <c r="D119" t="n">
         <v>4</v>
@@ -3857,8 +5281,8 @@
       <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="2" t="n">
-        <v>44171</v>
+      <c r="C120" t="s">
+        <v>127</v>
       </c>
       <c r="D120" t="n">
         <v>-1</v>
@@ -3886,8 +5310,8 @@
       <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="2" t="n">
-        <v>43995</v>
+      <c r="C121" t="s">
+        <v>128</v>
       </c>
       <c r="D121" t="n">
         <v>-6</v>
@@ -3915,8 +5339,8 @@
       <c r="B122" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>43996</v>
+      <c r="C122" t="s">
+        <v>129</v>
       </c>
       <c r="D122" t="n">
         <v>7</v>
@@ -3944,8 +5368,8 @@
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="2" t="n">
-        <v>43997</v>
+      <c r="C123" t="s">
+        <v>130</v>
       </c>
       <c r="D123" t="n">
         <v>11</v>
@@ -3973,8 +5397,8 @@
       <c r="B124" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="2" t="n">
-        <v>43998</v>
+      <c r="C124" t="s">
+        <v>131</v>
       </c>
       <c r="D124" t="n">
         <v>11</v>
@@ -4002,8 +5426,8 @@
       <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="2" t="n">
-        <v>43999</v>
+      <c r="C125" t="s">
+        <v>132</v>
       </c>
       <c r="D125" t="n">
         <v>8</v>
@@ -4031,8 +5455,8 @@
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>44000</v>
+      <c r="C126" t="s">
+        <v>133</v>
       </c>
       <c r="D126" t="n">
         <v>9</v>
@@ -4060,8 +5484,8 @@
       <c r="B127" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="2" t="n">
-        <v>44001</v>
+      <c r="C127" t="s">
+        <v>134</v>
       </c>
       <c r="D127" t="n">
         <v>-1</v>
@@ -4089,8 +5513,8 @@
       <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="2" t="n">
-        <v>44002</v>
+      <c r="C128" t="s">
+        <v>135</v>
       </c>
       <c r="D128" t="n">
         <v>-7</v>
@@ -4118,8 +5542,8 @@
       <c r="B129" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="2" t="n">
-        <v>44003</v>
+      <c r="C129" t="s">
+        <v>136</v>
       </c>
       <c r="D129" t="n">
         <v>6</v>
@@ -4147,8 +5571,8 @@
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="2" t="n">
-        <v>44004</v>
+      <c r="C130" t="s">
+        <v>137</v>
       </c>
       <c r="D130" t="n">
         <v>14</v>
@@ -4176,8 +5600,8 @@
       <c r="B131" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="2" t="n">
-        <v>44005</v>
+      <c r="C131" t="s">
+        <v>138</v>
       </c>
       <c r="D131" t="n">
         <v>13</v>
@@ -4205,8 +5629,8 @@
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="2" t="n">
-        <v>44006</v>
+      <c r="C132" t="s">
+        <v>139</v>
       </c>
       <c r="D132" t="n">
         <v>10</v>
@@ -4234,8 +5658,8 @@
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="2" t="n">
-        <v>44007</v>
+      <c r="C133" t="s">
+        <v>140</v>
       </c>
       <c r="D133" t="n">
         <v>12</v>
@@ -4263,8 +5687,8 @@
       <c r="B134" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="2" t="n">
-        <v>44008</v>
+      <c r="C134" t="s">
+        <v>141</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -4292,8 +5716,8 @@
       <c r="B135" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="2" t="n">
-        <v>44009</v>
+      <c r="C135" t="s">
+        <v>142</v>
       </c>
       <c r="D135" t="n">
         <v>-6</v>
@@ -4321,8 +5745,8 @@
       <c r="B136" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="2" t="n">
-        <v>44010</v>
+      <c r="C136" t="s">
+        <v>143</v>
       </c>
       <c r="D136" t="n">
         <v>3</v>
@@ -4350,8 +5774,8 @@
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="2" t="n">
-        <v>44011</v>
+      <c r="C137" t="s">
+        <v>144</v>
       </c>
       <c r="D137" t="n">
         <v>15</v>
@@ -4379,8 +5803,8 @@
       <c r="B138" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="2" t="n">
-        <v>44012</v>
+      <c r="C138" t="s">
+        <v>145</v>
       </c>
       <c r="D138" t="n">
         <v>23</v>
@@ -4408,8 +5832,8 @@
       <c r="B139" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>43837</v>
+      <c r="C139" t="s">
+        <v>146</v>
       </c>
       <c r="D139" t="n">
         <v>20</v>
@@ -4437,8 +5861,8 @@
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="2" t="n">
-        <v>43868</v>
+      <c r="C140" t="s">
+        <v>147</v>
       </c>
       <c r="D140" t="n">
         <v>20</v>
@@ -4466,8 +5890,8 @@
       <c r="B141" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="2" t="n">
-        <v>43897</v>
+      <c r="C141" t="s">
+        <v>148</v>
       </c>
       <c r="D141" t="n">
         <v>6</v>
@@ -4495,8 +5919,8 @@
       <c r="B142" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="2" t="n">
-        <v>43928</v>
+      <c r="C142" t="s">
+        <v>149</v>
       </c>
       <c r="D142" t="n">
         <v>-6</v>
@@ -4524,8 +5948,8 @@
       <c r="B143" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="2" t="n">
-        <v>43958</v>
+      <c r="C143" t="s">
+        <v>150</v>
       </c>
       <c r="D143" t="n">
         <v>9</v>
@@ -4553,8 +5977,8 @@
       <c r="B144" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="2" t="n">
-        <v>43989</v>
+      <c r="C144" t="s">
+        <v>151</v>
       </c>
       <c r="D144" t="n">
         <v>22</v>
@@ -4582,8 +6006,8 @@
       <c r="B145" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="2" t="n">
-        <v>44019</v>
+      <c r="C145" t="s">
+        <v>152</v>
       </c>
       <c r="D145" t="n">
         <v>23</v>
@@ -4611,8 +6035,8 @@
       <c r="B146" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="2" t="n">
-        <v>44050</v>
+      <c r="C146" t="s">
+        <v>153</v>
       </c>
       <c r="D146" t="n">
         <v>22</v>
@@ -4640,8 +6064,8 @@
       <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="2" t="n">
-        <v>44081</v>
+      <c r="C147" t="s">
+        <v>154</v>
       </c>
       <c r="D147" t="n">
         <v>19</v>
@@ -4669,8 +6093,8 @@
       <c r="B148" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="2" t="n">
-        <v>44111</v>
+      <c r="C148" t="s">
+        <v>155</v>
       </c>
       <c r="D148" t="n">
         <v>3</v>
@@ -4698,8 +6122,8 @@
       <c r="B149" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>44142</v>
+      <c r="C149" t="s">
+        <v>156</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -4727,8 +6151,8 @@
       <c r="B150" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="2" t="n">
-        <v>44172</v>
+      <c r="C150" t="s">
+        <v>157</v>
       </c>
       <c r="D150" t="n">
         <v>12</v>
@@ -4756,8 +6180,8 @@
       <c r="B151" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="2" t="n">
-        <v>44025</v>
+      <c r="C151" t="s">
+        <v>158</v>
       </c>
       <c r="D151" t="n">
         <v>29</v>
@@ -4785,8 +6209,8 @@
       <c r="B152" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="2" t="n">
-        <v>44026</v>
+      <c r="C152" t="s">
+        <v>159</v>
       </c>
       <c r="D152" t="n">
         <v>26</v>
@@ -4814,8 +6238,8 @@
       <c r="B153" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="2" t="n">
-        <v>44027</v>
+      <c r="C153" t="s">
+        <v>160</v>
       </c>
       <c r="D153" t="n">
         <v>24</v>
@@ -4843,8 +6267,8 @@
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="2" t="n">
-        <v>44028</v>
+      <c r="C154" t="s">
+        <v>161</v>
       </c>
       <c r="D154" t="n">
         <v>23</v>
@@ -4872,8 +6296,8 @@
       <c r="B155" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="2" t="n">
-        <v>44029</v>
+      <c r="C155" t="s">
+        <v>162</v>
       </c>
       <c r="D155" t="n">
         <v>6</v>
@@ -4901,8 +6325,8 @@
       <c r="B156" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="2" t="n">
-        <v>44030</v>
+      <c r="C156" t="s">
+        <v>163</v>
       </c>
       <c r="D156" t="n">
         <v>-1</v>
@@ -4930,8 +6354,8 @@
       <c r="B157" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="2" t="n">
-        <v>44031</v>
+      <c r="C157" t="s">
+        <v>164</v>
       </c>
       <c r="D157" t="n">
         <v>12</v>
@@ -4959,8 +6383,8 @@
       <c r="B158" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="2" t="n">
-        <v>44032</v>
+      <c r="C158" t="s">
+        <v>165</v>
       </c>
       <c r="D158" t="n">
         <v>32</v>
@@ -4988,8 +6412,8 @@
       <c r="B159" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="2" t="n">
-        <v>44033</v>
+      <c r="C159" t="s">
+        <v>166</v>
       </c>
       <c r="D159" t="n">
         <v>33</v>
@@ -5017,8 +6441,8 @@
       <c r="B160" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="2" t="n">
-        <v>44034</v>
+      <c r="C160" t="s">
+        <v>167</v>
       </c>
       <c r="D160" t="n">
         <v>28</v>
@@ -5046,8 +6470,8 @@
       <c r="B161" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="2" t="n">
-        <v>44035</v>
+      <c r="C161" t="s">
+        <v>168</v>
       </c>
       <c r="D161" t="n">
         <v>22</v>
@@ -5075,8 +6499,8 @@
       <c r="B162" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="2" t="n">
-        <v>44036</v>
+      <c r="C162" t="s">
+        <v>169</v>
       </c>
       <c r="D162" t="n">
         <v>5</v>
@@ -5104,8 +6528,8 @@
       <c r="B163" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="2" t="n">
-        <v>44037</v>
+      <c r="C163" t="s">
+        <v>170</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -5133,8 +6557,8 @@
       <c r="B164" t="s">
         <v>8</v>
       </c>
-      <c r="C164" s="2" t="n">
-        <v>44038</v>
+      <c r="C164" t="s">
+        <v>171</v>
       </c>
       <c r="D164" t="n">
         <v>9</v>
@@ -5162,8 +6586,8 @@
       <c r="B165" t="s">
         <v>8</v>
       </c>
-      <c r="C165" s="2" t="n">
-        <v>44039</v>
+      <c r="C165" t="s">
+        <v>172</v>
       </c>
       <c r="D165" t="n">
         <v>26</v>
@@ -5191,8 +6615,8 @@
       <c r="B166" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="2" t="n">
-        <v>44040</v>
+      <c r="C166" t="s">
+        <v>173</v>
       </c>
       <c r="D166" t="n">
         <v>27</v>
@@ -5220,8 +6644,8 @@
       <c r="B167" t="s">
         <v>8</v>
       </c>
-      <c r="C167" s="2" t="n">
-        <v>44041</v>
+      <c r="C167" t="s">
+        <v>174</v>
       </c>
       <c r="D167" t="n">
         <v>22</v>
@@ -5249,8 +6673,8 @@
       <c r="B168" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="2" t="n">
-        <v>44042</v>
+      <c r="C168" t="s">
+        <v>175</v>
       </c>
       <c r="D168" t="n">
         <v>23</v>
@@ -5278,8 +6702,8 @@
       <c r="B169" t="s">
         <v>8</v>
       </c>
-      <c r="C169" s="2" t="n">
-        <v>44043</v>
+      <c r="C169" t="s">
+        <v>176</v>
       </c>
       <c r="D169" t="n">
         <v>15</v>
@@ -5307,8 +6731,8 @@
       <c r="B170" t="s">
         <v>8</v>
       </c>
-      <c r="C170" s="2" t="n">
-        <v>43838</v>
+      <c r="C170" t="s">
+        <v>177</v>
       </c>
       <c r="D170" t="n">
         <v>4</v>
@@ -5336,8 +6760,8 @@
       <c r="B171" t="s">
         <v>8</v>
       </c>
-      <c r="C171" s="2" t="n">
-        <v>43869</v>
+      <c r="C171" t="s">
+        <v>178</v>
       </c>
       <c r="D171" t="n">
         <v>19</v>
@@ -5365,8 +6789,8 @@
       <c r="B172" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="2" t="n">
-        <v>43898</v>
+      <c r="C172" t="s">
+        <v>179</v>
       </c>
       <c r="D172" t="n">
         <v>27</v>
@@ -5394,8 +6818,8 @@
       <c r="B173" t="s">
         <v>8</v>
       </c>
-      <c r="C173" s="2" t="n">
-        <v>43929</v>
+      <c r="C173" t="s">
+        <v>180</v>
       </c>
       <c r="D173" t="n">
         <v>26</v>
@@ -5423,8 +6847,8 @@
       <c r="B174" t="s">
         <v>8</v>
       </c>
-      <c r="C174" s="2" t="n">
-        <v>43959</v>
+      <c r="C174" t="s">
+        <v>181</v>
       </c>
       <c r="D174" t="n">
         <v>22</v>
@@ -5452,8 +6876,8 @@
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="2" t="n">
-        <v>43990</v>
+      <c r="C175" t="s">
+        <v>182</v>
       </c>
       <c r="D175" t="n">
         <v>19</v>
@@ -5481,8 +6905,8 @@
       <c r="B176" t="s">
         <v>8</v>
       </c>
-      <c r="C176" s="2" t="n">
-        <v>44020</v>
+      <c r="C176" t="s">
+        <v>183</v>
       </c>
       <c r="D176" t="n">
         <v>6</v>
@@ -5510,8 +6934,8 @@
       <c r="B177" t="s">
         <v>8</v>
       </c>
-      <c r="C177" s="2" t="n">
-        <v>44051</v>
+      <c r="C177" t="s">
+        <v>184</v>
       </c>
       <c r="D177" t="n">
         <v>-2</v>
@@ -5539,8 +6963,8 @@
       <c r="B178" t="s">
         <v>8</v>
       </c>
-      <c r="C178" s="2" t="n">
-        <v>44082</v>
+      <c r="C178" t="s">
+        <v>185</v>
       </c>
       <c r="D178" t="n">
         <v>13</v>
@@ -5568,8 +6992,8 @@
       <c r="B179" t="s">
         <v>8</v>
       </c>
-      <c r="C179" s="2" t="n">
-        <v>44112</v>
+      <c r="C179" t="s">
+        <v>186</v>
       </c>
       <c r="D179" t="n">
         <v>17</v>
@@ -5597,8 +7021,8 @@
       <c r="B180" t="s">
         <v>8</v>
       </c>
-      <c r="C180" s="2" t="n">
-        <v>44143</v>
+      <c r="C180" t="s">
+        <v>187</v>
       </c>
       <c r="D180" t="n">
         <v>16</v>
@@ -5626,8 +7050,8 @@
       <c r="B181" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="2" t="n">
-        <v>44173</v>
+      <c r="C181" t="s">
+        <v>188</v>
       </c>
       <c r="D181" t="n">
         <v>13</v>
@@ -5655,8 +7079,8 @@
       <c r="B182" t="s">
         <v>8</v>
       </c>
-      <c r="C182" s="2" t="n">
-        <v>44056</v>
+      <c r="C182" t="s">
+        <v>189</v>
       </c>
       <c r="D182" t="n">
         <v>11</v>
@@ -5684,8 +7108,8 @@
       <c r="B183" t="s">
         <v>8</v>
       </c>
-      <c r="C183" s="2" t="n">
-        <v>44057</v>
+      <c r="C183" t="s">
+        <v>190</v>
       </c>
       <c r="D183" t="n">
         <v>3</v>
@@ -5713,8 +7137,8 @@
       <c r="B184" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="2" t="n">
-        <v>44058</v>
+      <c r="C184" t="s">
+        <v>191</v>
       </c>
       <c r="D184" t="n">
         <v>-4</v>
@@ -5742,8 +7166,8 @@
       <c r="B185" t="s">
         <v>8</v>
       </c>
-      <c r="C185" s="2" t="n">
-        <v>44059</v>
+      <c r="C185" t="s">
+        <v>192</v>
       </c>
       <c r="D185" t="n">
         <v>9</v>
@@ -5771,8 +7195,8 @@
       <c r="B186" t="s">
         <v>8</v>
       </c>
-      <c r="C186" s="2" t="n">
-        <v>44060</v>
+      <c r="C186" t="s">
+        <v>193</v>
       </c>
       <c r="D186" t="n">
         <v>10</v>
@@ -5800,8 +7224,8 @@
       <c r="B187" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="2" t="n">
-        <v>44061</v>
+      <c r="C187" t="s">
+        <v>194</v>
       </c>
       <c r="D187" t="n">
         <v>8</v>
@@ -5829,8 +7253,8 @@
       <c r="B188" t="s">
         <v>8</v>
       </c>
-      <c r="C188" s="2" t="n">
-        <v>44062</v>
+      <c r="C188" t="s">
+        <v>195</v>
       </c>
       <c r="D188" t="n">
         <v>7</v>
@@ -5858,8 +7282,8 @@
       <c r="B189" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="2" t="n">
-        <v>44063</v>
+      <c r="C189" t="s">
+        <v>196</v>
       </c>
       <c r="D189" t="n">
         <v>4</v>
@@ -5887,8 +7311,8 @@
       <c r="B190" t="s">
         <v>8</v>
       </c>
-      <c r="C190" s="2" t="n">
-        <v>44064</v>
+      <c r="C190" t="s">
+        <v>197</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -5916,8 +7340,8 @@
       <c r="B191" t="s">
         <v>8</v>
       </c>
-      <c r="C191" s="2" t="n">
-        <v>44065</v>
+      <c r="C191" t="s">
+        <v>198</v>
       </c>
       <c r="D191" t="n">
         <v>-4</v>
@@ -5945,8 +7369,8 @@
       <c r="B192" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="2" t="n">
-        <v>44066</v>
+      <c r="C192" t="s">
+        <v>199</v>
       </c>
       <c r="D192" t="n">
         <v>5</v>
@@ -5974,8 +7398,8 @@
       <c r="B193" t="s">
         <v>8</v>
       </c>
-      <c r="C193" s="2" t="n">
-        <v>44067</v>
+      <c r="C193" t="s">
+        <v>200</v>
       </c>
       <c r="D193" t="n">
         <v>6</v>
@@ -6003,8 +7427,8 @@
       <c r="B194" t="s">
         <v>8</v>
       </c>
-      <c r="C194" s="2" t="n">
-        <v>44068</v>
+      <c r="C194" t="s">
+        <v>201</v>
       </c>
       <c r="D194" t="n">
         <v>7</v>
@@ -6032,8 +7456,8 @@
       <c r="B195" t="s">
         <v>8</v>
       </c>
-      <c r="C195" s="2" t="n">
-        <v>44069</v>
+      <c r="C195" t="s">
+        <v>202</v>
       </c>
       <c r="D195" t="n">
         <v>4</v>
@@ -6061,8 +7485,8 @@
       <c r="B196" t="s">
         <v>8</v>
       </c>
-      <c r="C196" s="2" t="n">
-        <v>44070</v>
+      <c r="C196" t="s">
+        <v>203</v>
       </c>
       <c r="D196" t="n">
         <v>4</v>
@@ -6090,8 +7514,8 @@
       <c r="B197" t="s">
         <v>8</v>
       </c>
-      <c r="C197" s="2" t="n">
-        <v>44071</v>
+      <c r="C197" t="s">
+        <v>204</v>
       </c>
       <c r="D197" t="n">
         <v>1</v>
@@ -6119,8 +7543,8 @@
       <c r="B198" t="s">
         <v>8</v>
       </c>
-      <c r="C198" s="2" t="n">
-        <v>44072</v>
+      <c r="C198" t="s">
+        <v>205</v>
       </c>
       <c r="D198" t="n">
         <v>-3</v>
@@ -6148,8 +7572,8 @@
       <c r="B199" t="s">
         <v>8</v>
       </c>
-      <c r="C199" s="2" t="n">
-        <v>44073</v>
+      <c r="C199" t="s">
+        <v>206</v>
       </c>
       <c r="D199" t="n">
         <v>10</v>
@@ -6177,8 +7601,8 @@
       <c r="B200" t="s">
         <v>8</v>
       </c>
-      <c r="C200" s="2" t="n">
-        <v>44074</v>
+      <c r="C200" t="s">
+        <v>207</v>
       </c>
       <c r="D200" t="n">
         <v>16</v>
@@ -6206,8 +7630,8 @@
       <c r="B201" t="s">
         <v>8</v>
       </c>
-      <c r="C201" s="2" t="n">
-        <v>43839</v>
+      <c r="C201" t="s">
+        <v>208</v>
       </c>
       <c r="D201" t="n">
         <v>14</v>
@@ -6235,8 +7659,8 @@
       <c r="B202" t="s">
         <v>8</v>
       </c>
-      <c r="C202" s="2" t="n">
-        <v>43870</v>
+      <c r="C202" t="s">
+        <v>209</v>
       </c>
       <c r="D202" t="n">
         <v>8</v>
@@ -6264,8 +7688,8 @@
       <c r="B203" t="s">
         <v>8</v>
       </c>
-      <c r="C203" s="2" t="n">
-        <v>43899</v>
+      <c r="C203" t="s">
+        <v>210</v>
       </c>
       <c r="D203" t="n">
         <v>8</v>
@@ -6293,8 +7717,8 @@
       <c r="B204" t="s">
         <v>8</v>
       </c>
-      <c r="C204" s="2" t="n">
-        <v>43930</v>
+      <c r="C204" t="s">
+        <v>211</v>
       </c>
       <c r="D204" t="n">
         <v>7</v>
@@ -6322,8 +7746,8 @@
       <c r="B205" t="s">
         <v>8</v>
       </c>
-      <c r="C205" s="2" t="n">
-        <v>43960</v>
+      <c r="C205" t="s">
+        <v>212</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -6351,8 +7775,8 @@
       <c r="B206" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="2" t="n">
-        <v>43991</v>
+      <c r="C206" t="s">
+        <v>213</v>
       </c>
       <c r="D206" t="n">
         <v>10</v>
@@ -6380,8 +7804,8 @@
       <c r="B207" t="s">
         <v>8</v>
       </c>
-      <c r="C207" s="2" t="n">
-        <v>44021</v>
+      <c r="C207" t="s">
+        <v>214</v>
       </c>
       <c r="D207" t="n">
         <v>7</v>
@@ -6409,8 +7833,8 @@
       <c r="B208" t="s">
         <v>8</v>
       </c>
-      <c r="C208" s="2" t="n">
-        <v>44052</v>
+      <c r="C208" t="s">
+        <v>215</v>
       </c>
       <c r="D208" t="n">
         <v>7</v>
@@ -6438,8 +7862,8 @@
       <c r="B209" t="s">
         <v>8</v>
       </c>
-      <c r="C209" s="2" t="n">
-        <v>44083</v>
+      <c r="C209" t="s">
+        <v>216</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
@@ -6467,8 +7891,8 @@
       <c r="B210" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="2" t="n">
-        <v>44113</v>
+      <c r="C210" t="s">
+        <v>217</v>
       </c>
       <c r="D210" t="n">
         <v>5</v>
@@ -6496,8 +7920,8 @@
       <c r="B211" t="s">
         <v>8</v>
       </c>
-      <c r="C211" s="2" t="n">
-        <v>44144</v>
+      <c r="C211" t="s">
+        <v>218</v>
       </c>
       <c r="D211" t="n">
         <v>2</v>
@@ -6525,8 +7949,8 @@
       <c r="B212" t="s">
         <v>8</v>
       </c>
-      <c r="C212" s="2" t="n">
-        <v>44174</v>
+      <c r="C212" t="s">
+        <v>219</v>
       </c>
       <c r="D212" t="n">
         <v>-3</v>
@@ -6554,8 +7978,8 @@
       <c r="B213" t="s">
         <v>8</v>
       </c>
-      <c r="C213" s="2" t="n">
-        <v>44087</v>
+      <c r="C213" t="s">
+        <v>220</v>
       </c>
       <c r="D213" t="n">
         <v>5</v>
@@ -6583,8 +8007,8 @@
       <c r="B214" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="2" t="n">
-        <v>44088</v>
+      <c r="C214" t="s">
+        <v>221</v>
       </c>
       <c r="D214" t="n">
         <v>7</v>
@@ -6612,8 +8036,8 @@
       <c r="B215" t="s">
         <v>8</v>
       </c>
-      <c r="C215" s="2" t="n">
-        <v>44089</v>
+      <c r="C215" t="s">
+        <v>222</v>
       </c>
       <c r="D215" t="n">
         <v>8</v>
@@ -6641,8 +8065,8 @@
       <c r="B216" t="s">
         <v>8</v>
       </c>
-      <c r="C216" s="2" t="n">
-        <v>44090</v>
+      <c r="C216" t="s">
+        <v>223</v>
       </c>
       <c r="D216" t="n">
         <v>2</v>
@@ -6670,8 +8094,8 @@
       <c r="B217" t="s">
         <v>8</v>
       </c>
-      <c r="C217" s="2" t="n">
-        <v>44091</v>
+      <c r="C217" t="s">
+        <v>224</v>
       </c>
       <c r="D217" t="n">
         <v>3</v>
@@ -6699,8 +8123,8 @@
       <c r="B218" t="s">
         <v>8</v>
       </c>
-      <c r="C218" s="2" t="n">
-        <v>44092</v>
+      <c r="C218" t="s">
+        <v>225</v>
       </c>
       <c r="D218" t="n">
         <v>-1</v>
@@ -6728,8 +8152,8 @@
       <c r="B219" t="s">
         <v>8</v>
       </c>
-      <c r="C219" s="2" t="n">
-        <v>44093</v>
+      <c r="C219" t="s">
+        <v>226</v>
       </c>
       <c r="D219" t="n">
         <v>-6</v>
@@ -6757,8 +8181,8 @@
       <c r="B220" t="s">
         <v>8</v>
       </c>
-      <c r="C220" s="2" t="n">
-        <v>44094</v>
+      <c r="C220" t="s">
+        <v>227</v>
       </c>
       <c r="D220" t="n">
         <v>3</v>
@@ -6786,8 +8210,8 @@
       <c r="B221" t="s">
         <v>8</v>
       </c>
-      <c r="C221" s="2" t="n">
-        <v>44095</v>
+      <c r="C221" t="s">
+        <v>228</v>
       </c>
       <c r="D221" t="n">
         <v>1</v>
@@ -6815,8 +8239,8 @@
       <c r="B222" t="s">
         <v>8</v>
       </c>
-      <c r="C222" s="2" t="n">
-        <v>44096</v>
+      <c r="C222" t="s">
+        <v>229</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -6844,8 +8268,8 @@
       <c r="B223" t="s">
         <v>8</v>
       </c>
-      <c r="C223" s="2" t="n">
-        <v>44097</v>
+      <c r="C223" t="s">
+        <v>230</v>
       </c>
       <c r="D223" t="n">
         <v>-4</v>
@@ -6873,8 +8297,8 @@
       <c r="B224" t="s">
         <v>8</v>
       </c>
-      <c r="C224" s="2" t="n">
-        <v>44098</v>
+      <c r="C224" t="s">
+        <v>231</v>
       </c>
       <c r="D224" t="n">
         <v>-4</v>
@@ -6902,8 +8326,8 @@
       <c r="B225" t="s">
         <v>8</v>
       </c>
-      <c r="C225" s="2" t="n">
-        <v>44099</v>
+      <c r="C225" t="s">
+        <v>232</v>
       </c>
       <c r="D225" t="n">
         <v>-13</v>
@@ -6931,8 +8355,8 @@
       <c r="B226" t="s">
         <v>8</v>
       </c>
-      <c r="C226" s="2" t="n">
-        <v>44100</v>
+      <c r="C226" t="s">
+        <v>233</v>
       </c>
       <c r="D226" t="n">
         <v>-10</v>
@@ -6960,8 +8384,8 @@
       <c r="B227" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="2" t="n">
-        <v>44101</v>
+      <c r="C227" t="s">
+        <v>234</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -6989,8 +8413,8 @@
       <c r="B228" t="s">
         <v>8</v>
       </c>
-      <c r="C228" s="2" t="n">
-        <v>44102</v>
+      <c r="C228" t="s">
+        <v>235</v>
       </c>
       <c r="D228" t="n">
         <v>-5</v>
@@ -7018,8 +8442,8 @@
       <c r="B229" t="s">
         <v>8</v>
       </c>
-      <c r="C229" s="2" t="n">
-        <v>44103</v>
+      <c r="C229" t="s">
+        <v>236</v>
       </c>
       <c r="D229" t="n">
         <v>-1</v>
@@ -7047,8 +8471,8 @@
       <c r="B230" t="s">
         <v>8</v>
       </c>
-      <c r="C230" s="2" t="n">
-        <v>44104</v>
+      <c r="C230" t="s">
+        <v>237</v>
       </c>
       <c r="D230" t="n">
         <v>7</v>
@@ -7076,8 +8500,8 @@
       <c r="B231" t="s">
         <v>8</v>
       </c>
-      <c r="C231" s="2" t="n">
-        <v>43840</v>
+      <c r="C231" t="s">
+        <v>238</v>
       </c>
       <c r="D231" t="n">
         <v>4</v>
@@ -7105,8 +8529,8 @@
       <c r="B232" t="s">
         <v>8</v>
       </c>
-      <c r="C232" s="2" t="n">
-        <v>43871</v>
+      <c r="C232" t="s">
+        <v>239</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -7134,8 +8558,8 @@
       <c r="B233" t="s">
         <v>8</v>
       </c>
-      <c r="C233" s="2" t="n">
-        <v>43900</v>
+      <c r="C233" t="s">
+        <v>240</v>
       </c>
       <c r="D233" t="n">
         <v>-1</v>
@@ -7163,8 +8587,8 @@
       <c r="B234" t="s">
         <v>8</v>
       </c>
-      <c r="C234" s="2" t="n">
-        <v>43931</v>
+      <c r="C234" t="s">
+        <v>241</v>
       </c>
       <c r="D234" t="n">
         <v>9</v>
@@ -7192,8 +8616,8 @@
       <c r="B235" t="s">
         <v>8</v>
       </c>
-      <c r="C235" s="2" t="n">
-        <v>43961</v>
+      <c r="C235" t="s">
+        <v>242</v>
       </c>
       <c r="D235" t="n">
         <v>5</v>
@@ -7221,8 +8645,8 @@
       <c r="B236" t="s">
         <v>8</v>
       </c>
-      <c r="C236" s="2" t="n">
-        <v>43992</v>
+      <c r="C236" t="s">
+        <v>243</v>
       </c>
       <c r="D236" t="n">
         <v>5</v>
@@ -7250,8 +8674,8 @@
       <c r="B237" t="s">
         <v>8</v>
       </c>
-      <c r="C237" s="2" t="n">
-        <v>44022</v>
+      <c r="C237" t="s">
+        <v>244</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -7279,8 +8703,8 @@
       <c r="B238" t="s">
         <v>8</v>
       </c>
-      <c r="C238" s="2" t="n">
-        <v>44053</v>
+      <c r="C238" t="s">
+        <v>245</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -7308,8 +8732,8 @@
       <c r="B239" t="s">
         <v>8</v>
       </c>
-      <c r="C239" s="2" t="n">
-        <v>44084</v>
+      <c r="C239" t="s">
+        <v>246</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -7337,8 +8761,8 @@
       <c r="B240" t="s">
         <v>8</v>
       </c>
-      <c r="C240" s="2" t="n">
-        <v>44114</v>
+      <c r="C240" t="s">
+        <v>247</v>
       </c>
       <c r="D240" t="n">
         <v>-2</v>
@@ -7366,8 +8790,8 @@
       <c r="B241" t="s">
         <v>8</v>
       </c>
-      <c r="C241" s="2" t="n">
-        <v>44145</v>
+      <c r="C241" t="s">
+        <v>248</v>
       </c>
       <c r="D241" t="n">
         <v>11</v>
@@ -7395,8 +8819,8 @@
       <c r="B242" t="s">
         <v>8</v>
       </c>
-      <c r="C242" s="2" t="n">
-        <v>44175</v>
+      <c r="C242" t="s">
+        <v>249</v>
       </c>
       <c r="D242" t="n">
         <v>16</v>
@@ -7424,8 +8848,8 @@
       <c r="B243" t="s">
         <v>8</v>
       </c>
-      <c r="C243" s="2" t="n">
-        <v>44117</v>
+      <c r="C243" t="s">
+        <v>250</v>
       </c>
       <c r="D243" t="n">
         <v>19</v>
@@ -7453,8 +8877,8 @@
       <c r="B244" t="s">
         <v>8</v>
       </c>
-      <c r="C244" s="2" t="n">
-        <v>44118</v>
+      <c r="C244" t="s">
+        <v>251</v>
       </c>
       <c r="D244" t="n">
         <v>12</v>
@@ -7482,8 +8906,8 @@
       <c r="B245" t="s">
         <v>8</v>
       </c>
-      <c r="C245" s="2" t="n">
-        <v>44119</v>
+      <c r="C245" t="s">
+        <v>252</v>
       </c>
       <c r="D245" t="n">
         <v>14</v>
@@ -7511,8 +8935,8 @@
       <c r="B246" t="s">
         <v>8</v>
       </c>
-      <c r="C246" s="2" t="n">
-        <v>44120</v>
+      <c r="C246" t="s">
+        <v>253</v>
       </c>
       <c r="D246" t="n">
         <v>3</v>
@@ -7540,8 +8964,8 @@
       <c r="B247" t="s">
         <v>8</v>
       </c>
-      <c r="C247" s="2" t="n">
-        <v>44121</v>
+      <c r="C247" t="s">
+        <v>254</v>
       </c>
       <c r="D247" t="n">
         <v>-3</v>
@@ -7569,8 +8993,8 @@
       <c r="B248" t="s">
         <v>8</v>
       </c>
-      <c r="C248" s="2" t="n">
-        <v>44122</v>
+      <c r="C248" t="s">
+        <v>255</v>
       </c>
       <c r="D248" t="n">
         <v>6</v>
@@ -7598,8 +9022,8 @@
       <c r="B249" t="s">
         <v>8</v>
       </c>
-      <c r="C249" s="2" t="n">
-        <v>44123</v>
+      <c r="C249" t="s">
+        <v>256</v>
       </c>
       <c r="D249" t="n">
         <v>-1</v>
@@ -7627,8 +9051,8 @@
       <c r="B250" t="s">
         <v>8</v>
       </c>
-      <c r="C250" s="2" t="n">
-        <v>44124</v>
+      <c r="C250" t="s">
+        <v>257</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -7656,8 +9080,8 @@
       <c r="B251" t="s">
         <v>8</v>
       </c>
-      <c r="C251" s="2" t="n">
-        <v>44125</v>
+      <c r="C251" t="s">
+        <v>258</v>
       </c>
       <c r="D251" t="n">
         <v>-5</v>
@@ -7685,8 +9109,8 @@
       <c r="B252" t="s">
         <v>8</v>
       </c>
-      <c r="C252" s="2" t="n">
-        <v>44126</v>
+      <c r="C252" t="s">
+        <v>259</v>
       </c>
       <c r="D252" t="n">
         <v>-2</v>
@@ -7714,8 +9138,8 @@
       <c r="B253" t="s">
         <v>8</v>
       </c>
-      <c r="C253" s="2" t="n">
-        <v>44127</v>
+      <c r="C253" t="s">
+        <v>260</v>
       </c>
       <c r="D253" t="n">
         <v>-4</v>
@@ -7743,8 +9167,8 @@
       <c r="B254" t="s">
         <v>8</v>
       </c>
-      <c r="C254" s="2" t="n">
-        <v>44128</v>
+      <c r="C254" t="s">
+        <v>261</v>
       </c>
       <c r="D254" t="n">
         <v>-7</v>
@@ -7772,8 +9196,8 @@
       <c r="B255" t="s">
         <v>8</v>
       </c>
-      <c r="C255" s="2" t="n">
-        <v>44129</v>
+      <c r="C255" t="s">
+        <v>262</v>
       </c>
       <c r="D255" t="n">
         <v>-2</v>
@@ -7801,8 +9225,8 @@
       <c r="B256" t="s">
         <v>8</v>
       </c>
-      <c r="C256" s="2" t="n">
-        <v>44130</v>
+      <c r="C256" t="s">
+        <v>263</v>
       </c>
       <c r="D256" t="n">
         <v>-6</v>
@@ -7830,8 +9254,8 @@
       <c r="B257" t="s">
         <v>8</v>
       </c>
-      <c r="C257" s="2" t="n">
-        <v>44131</v>
+      <c r="C257" t="s">
+        <v>264</v>
       </c>
       <c r="D257" t="n">
         <v>-4</v>
@@ -7859,8 +9283,8 @@
       <c r="B258" t="s">
         <v>8</v>
       </c>
-      <c r="C258" s="2" t="n">
-        <v>44132</v>
+      <c r="C258" t="s">
+        <v>265</v>
       </c>
       <c r="D258" t="n">
         <v>-5</v>
@@ -7888,8 +9312,8 @@
       <c r="B259" t="s">
         <v>8</v>
       </c>
-      <c r="C259" s="2" t="n">
-        <v>44133</v>
+      <c r="C259" t="s">
+        <v>266</v>
       </c>
       <c r="D259" t="n">
         <v>-7</v>
@@ -7917,8 +9341,8 @@
       <c r="B260" t="s">
         <v>8</v>
       </c>
-      <c r="C260" s="2" t="n">
-        <v>44134</v>
+      <c r="C260" t="s">
+        <v>267</v>
       </c>
       <c r="D260" t="n">
         <v>-6</v>
@@ -7946,8 +9370,8 @@
       <c r="B261" t="s">
         <v>8</v>
       </c>
-      <c r="C261" s="2" t="n">
-        <v>44135</v>
+      <c r="C261" t="s">
+        <v>268</v>
       </c>
       <c r="D261" t="n">
         <v>-7</v>
@@ -7975,8 +9399,8 @@
       <c r="B262" t="s">
         <v>8</v>
       </c>
-      <c r="C262" s="2" t="n">
-        <v>43841</v>
+      <c r="C262" t="s">
+        <v>269</v>
       </c>
       <c r="D262" t="n">
         <v>1</v>
@@ -8004,8 +9428,8 @@
       <c r="B263" t="s">
         <v>8</v>
       </c>
-      <c r="C263" s="2" t="n">
-        <v>43872</v>
+      <c r="C263" t="s">
+        <v>270</v>
       </c>
       <c r="D263" t="n">
         <v>-7</v>
@@ -8033,8 +9457,8 @@
       <c r="B264" t="s">
         <v>8</v>
       </c>
-      <c r="C264" s="2" t="n">
-        <v>43901</v>
+      <c r="C264" t="s">
+        <v>271</v>
       </c>
       <c r="D264" t="n">
         <v>-2</v>
@@ -8062,8 +9486,8 @@
       <c r="B265" t="s">
         <v>8</v>
       </c>
-      <c r="C265" s="2" t="n">
-        <v>43932</v>
+      <c r="C265" t="s">
+        <v>272</v>
       </c>
       <c r="D265" t="n">
         <v>-8</v>
@@ -8091,8 +9515,8 @@
       <c r="B266" t="s">
         <v>8</v>
       </c>
-      <c r="C266" s="2" t="n">
-        <v>43962</v>
+      <c r="C266" t="s">
+        <v>273</v>
       </c>
       <c r="D266" t="n">
         <v>-7</v>
@@ -8120,8 +9544,8 @@
       <c r="B267" t="s">
         <v>8</v>
       </c>
-      <c r="C267" s="2" t="n">
-        <v>43993</v>
+      <c r="C267" t="s">
+        <v>274</v>
       </c>
       <c r="D267" t="n">
         <v>-8</v>
@@ -8149,8 +9573,8 @@
       <c r="B268" t="s">
         <v>8</v>
       </c>
-      <c r="C268" s="2" t="n">
-        <v>44023</v>
+      <c r="C268" t="s">
+        <v>275</v>
       </c>
       <c r="D268" t="n">
         <v>-11</v>
@@ -8178,8 +9602,8 @@
       <c r="B269" t="s">
         <v>8</v>
       </c>
-      <c r="C269" s="2" t="n">
-        <v>44054</v>
+      <c r="C269" t="s">
+        <v>276</v>
       </c>
       <c r="D269" t="n">
         <v>-2</v>
@@ -8207,8 +9631,8 @@
       <c r="B270" t="s">
         <v>8</v>
       </c>
-      <c r="C270" s="2" t="n">
-        <v>44085</v>
+      <c r="C270" t="s">
+        <v>277</v>
       </c>
       <c r="D270" t="n">
         <v>-7</v>
@@ -8236,8 +9660,8 @@
       <c r="B271" t="s">
         <v>8</v>
       </c>
-      <c r="C271" s="2" t="n">
-        <v>44115</v>
+      <c r="C271" t="s">
+        <v>278</v>
       </c>
       <c r="D271" t="n">
         <v>-6</v>
@@ -8265,8 +9689,8 @@
       <c r="B272" t="s">
         <v>8</v>
       </c>
-      <c r="C272" s="2" t="n">
-        <v>44146</v>
+      <c r="C272" t="s">
+        <v>279</v>
       </c>
       <c r="D272" t="n">
         <v>-8</v>
@@ -8294,8 +9718,8 @@
       <c r="B273" t="s">
         <v>8</v>
       </c>
-      <c r="C273" s="2" t="n">
-        <v>44176</v>
+      <c r="C273" t="s">
+        <v>280</v>
       </c>
       <c r="D273" t="n">
         <v>-7</v>
@@ -8323,8 +9747,8 @@
       <c r="B274" t="s">
         <v>8</v>
       </c>
-      <c r="C274" s="2" t="n">
-        <v>44148</v>
+      <c r="C274" t="s">
+        <v>281</v>
       </c>
       <c r="D274" t="n">
         <v>-8</v>
@@ -8352,8 +9776,8 @@
       <c r="B275" t="s">
         <v>8</v>
       </c>
-      <c r="C275" s="2" t="n">
-        <v>44149</v>
+      <c r="C275" t="s">
+        <v>282</v>
       </c>
       <c r="D275" t="n">
         <v>-9</v>
@@ -8381,8 +9805,8 @@
       <c r="B276" t="s">
         <v>8</v>
       </c>
-      <c r="C276" s="2" t="n">
-        <v>44150</v>
+      <c r="C276" t="s">
+        <v>283</v>
       </c>
       <c r="D276" t="n">
         <v>-1</v>
@@ -8410,8 +9834,8 @@
       <c r="B277" t="s">
         <v>8</v>
       </c>
-      <c r="C277" s="2" t="n">
-        <v>44151</v>
+      <c r="C277" t="s">
+        <v>284</v>
       </c>
       <c r="D277" t="n">
         <v>-6</v>
@@ -8439,8 +9863,8 @@
       <c r="B278" t="s">
         <v>8</v>
       </c>
-      <c r="C278" s="2" t="n">
-        <v>44152</v>
+      <c r="C278" t="s">
+        <v>285</v>
       </c>
       <c r="D278" t="n">
         <v>-6</v>
@@ -8468,8 +9892,8 @@
       <c r="B279" t="s">
         <v>8</v>
       </c>
-      <c r="C279" s="2" t="n">
-        <v>44153</v>
+      <c r="C279" t="s">
+        <v>286</v>
       </c>
       <c r="D279" t="n">
         <v>-8</v>
@@ -8497,8 +9921,8 @@
       <c r="B280" t="s">
         <v>8</v>
       </c>
-      <c r="C280" s="2" t="n">
-        <v>44154</v>
+      <c r="C280" t="s">
+        <v>287</v>
       </c>
       <c r="D280" t="n">
         <v>-7</v>
@@ -8526,8 +9950,8 @@
       <c r="B281" t="s">
         <v>8</v>
       </c>
-      <c r="C281" s="2" t="n">
-        <v>44155</v>
+      <c r="C281" t="s">
+        <v>288</v>
       </c>
       <c r="D281" t="n">
         <v>-5</v>
@@ -8555,8 +9979,8 @@
       <c r="B282" t="s">
         <v>8</v>
       </c>
-      <c r="C282" s="2" t="n">
-        <v>44156</v>
+      <c r="C282" t="s">
+        <v>289</v>
       </c>
       <c r="D282" t="n">
         <v>-11</v>
@@ -8584,8 +10008,8 @@
       <c r="B283" t="s">
         <v>8</v>
       </c>
-      <c r="C283" s="2" t="n">
-        <v>44157</v>
+      <c r="C283" t="s">
+        <v>290</v>
       </c>
       <c r="D283" t="n">
         <v>1</v>
@@ -8613,8 +10037,8 @@
       <c r="B284" t="s">
         <v>8</v>
       </c>
-      <c r="C284" s="2" t="n">
-        <v>44158</v>
+      <c r="C284" t="s">
+        <v>291</v>
       </c>
       <c r="D284" t="n">
         <v>-3</v>
@@ -8642,8 +10066,8 @@
       <c r="B285" t="s">
         <v>8</v>
       </c>
-      <c r="C285" s="2" t="n">
-        <v>44159</v>
+      <c r="C285" t="s">
+        <v>292</v>
       </c>
       <c r="D285" t="n">
         <v>-2</v>
@@ -8671,8 +10095,8 @@
       <c r="B286" t="s">
         <v>8</v>
       </c>
-      <c r="C286" s="2" t="n">
-        <v>44160</v>
+      <c r="C286" t="s">
+        <v>293</v>
       </c>
       <c r="D286" t="n">
         <v>-3</v>
@@ -8700,8 +10124,8 @@
       <c r="B287" t="s">
         <v>8</v>
       </c>
-      <c r="C287" s="2" t="n">
-        <v>44161</v>
+      <c r="C287" t="s">
+        <v>294</v>
       </c>
       <c r="D287" t="n">
         <v>2</v>
@@ -8729,8 +10153,8 @@
       <c r="B288" t="s">
         <v>8</v>
       </c>
-      <c r="C288" s="2" t="n">
-        <v>44162</v>
+      <c r="C288" t="s">
+        <v>295</v>
       </c>
       <c r="D288" t="n">
         <v>9</v>
@@ -8758,8 +10182,8 @@
       <c r="B289" t="s">
         <v>8</v>
       </c>
-      <c r="C289" s="2" t="n">
-        <v>44163</v>
+      <c r="C289" t="s">
+        <v>296</v>
       </c>
       <c r="D289" t="n">
         <v>-3</v>
@@ -8787,8 +10211,8 @@
       <c r="B290" t="s">
         <v>8</v>
       </c>
-      <c r="C290" s="2" t="n">
-        <v>44164</v>
+      <c r="C290" t="s">
+        <v>297</v>
       </c>
       <c r="D290" t="n">
         <v>6</v>
@@ -8816,8 +10240,8 @@
       <c r="B291" t="s">
         <v>8</v>
       </c>
-      <c r="C291" s="2" t="n">
-        <v>44165</v>
+      <c r="C291" t="s">
+        <v>298</v>
       </c>
       <c r="D291" t="n">
         <v>6</v>
@@ -8845,8 +10269,8 @@
       <c r="B292" t="s">
         <v>8</v>
       </c>
-      <c r="C292" s="2" t="n">
-        <v>43842</v>
+      <c r="C292" t="s">
+        <v>299</v>
       </c>
       <c r="D292" t="n">
         <v>4</v>
@@ -8874,8 +10298,8 @@
       <c r="B293" t="s">
         <v>8</v>
       </c>
-      <c r="C293" s="2" t="n">
-        <v>43873</v>
+      <c r="C293" t="s">
+        <v>300</v>
       </c>
       <c r="D293" t="n">
         <v>0</v>
@@ -8903,8 +10327,8 @@
       <c r="B294" t="s">
         <v>8</v>
       </c>
-      <c r="C294" s="2" t="n">
-        <v>43902</v>
+      <c r="C294" t="s">
+        <v>301</v>
       </c>
       <c r="D294" t="n">
         <v>0</v>
@@ -8932,8 +10356,8 @@
       <c r="B295" t="s">
         <v>8</v>
       </c>
-      <c r="C295" s="2" t="n">
-        <v>43933</v>
+      <c r="C295" t="s">
+        <v>302</v>
       </c>
       <c r="D295" t="n">
         <v>-3</v>
@@ -8961,8 +10385,8 @@
       <c r="B296" t="s">
         <v>8</v>
       </c>
-      <c r="C296" s="2" t="n">
-        <v>43963</v>
+      <c r="C296" t="s">
+        <v>303</v>
       </c>
       <c r="D296" t="n">
         <v>-4</v>
@@ -8990,8 +10414,8 @@
       <c r="B297" t="s">
         <v>8</v>
       </c>
-      <c r="C297" s="2" t="n">
-        <v>43994</v>
+      <c r="C297" t="s">
+        <v>304</v>
       </c>
       <c r="D297" t="n">
         <v>4</v>
@@ -9019,8 +10443,8 @@
       <c r="B298" t="s">
         <v>8</v>
       </c>
-      <c r="C298" s="2" t="n">
-        <v>44024</v>
+      <c r="C298" t="s">
+        <v>305</v>
       </c>
       <c r="D298" t="n">
         <v>-1</v>
@@ -9048,8 +10472,8 @@
       <c r="B299" t="s">
         <v>8</v>
       </c>
-      <c r="C299" s="2" t="n">
-        <v>44055</v>
+      <c r="C299" t="s">
+        <v>306</v>
       </c>
       <c r="D299" t="n">
         <v>5</v>
@@ -9077,8 +10501,8 @@
       <c r="B300" t="s">
         <v>8</v>
       </c>
-      <c r="C300" s="2" t="n">
-        <v>44086</v>
+      <c r="C300" t="s">
+        <v>307</v>
       </c>
       <c r="D300" t="n">
         <v>-11</v>
@@ -9106,8 +10530,8 @@
       <c r="B301" t="s">
         <v>8</v>
       </c>
-      <c r="C301" s="2" t="n">
-        <v>44116</v>
+      <c r="C301" t="s">
+        <v>308</v>
       </c>
       <c r="D301" t="n">
         <v>-10</v>
@@ -9135,8 +10559,8 @@
       <c r="B302" t="s">
         <v>8</v>
       </c>
-      <c r="C302" s="2" t="n">
-        <v>44147</v>
+      <c r="C302" t="s">
+        <v>309</v>
       </c>
       <c r="D302" t="n">
         <v>-15</v>
@@ -9164,8 +10588,8 @@
       <c r="B303" t="s">
         <v>8</v>
       </c>
-      <c r="C303" s="2" t="n">
-        <v>44177</v>
+      <c r="C303" t="s">
+        <v>310</v>
       </c>
       <c r="D303" t="n">
         <v>-21</v>
@@ -9193,8 +10617,8 @@
       <c r="B304" t="s">
         <v>8</v>
       </c>
-      <c r="C304" s="2" t="n">
-        <v>44178</v>
+      <c r="C304" t="s">
+        <v>311</v>
       </c>
       <c r="D304" t="n">
         <v>-11</v>
@@ -9222,8 +10646,8 @@
       <c r="B305" t="s">
         <v>8</v>
       </c>
-      <c r="C305" s="2" t="n">
-        <v>44179</v>
+      <c r="C305" t="s">
+        <v>312</v>
       </c>
       <c r="D305" t="n">
         <v>-12</v>
@@ -9251,8 +10675,8 @@
       <c r="B306" t="s">
         <v>8</v>
       </c>
-      <c r="C306" s="2" t="n">
-        <v>44180</v>
+      <c r="C306" t="s">
+        <v>313</v>
       </c>
       <c r="D306" t="n">
         <v>-8</v>
@@ -9280,8 +10704,8 @@
       <c r="B307" t="s">
         <v>8</v>
       </c>
-      <c r="C307" s="2" t="n">
-        <v>44181</v>
+      <c r="C307" t="s">
+        <v>314</v>
       </c>
       <c r="D307" t="n">
         <v>-5</v>
@@ -9309,8 +10733,8 @@
       <c r="B308" t="s">
         <v>8</v>
       </c>
-      <c r="C308" s="2" t="n">
-        <v>44182</v>
+      <c r="C308" t="s">
+        <v>315</v>
       </c>
       <c r="D308" t="n">
         <v>-11</v>
@@ -9338,8 +10762,8 @@
       <c r="B309" t="s">
         <v>8</v>
       </c>
-      <c r="C309" s="2" t="n">
-        <v>44183</v>
+      <c r="C309" t="s">
+        <v>316</v>
       </c>
       <c r="D309" t="n">
         <v>-18</v>
@@ -9367,8 +10791,8 @@
       <c r="B310" t="s">
         <v>8</v>
       </c>
-      <c r="C310" s="2" t="n">
-        <v>44184</v>
+      <c r="C310" t="s">
+        <v>317</v>
       </c>
       <c r="D310" t="n">
         <v>-25</v>
@@ -9396,8 +10820,8 @@
       <c r="B311" t="s">
         <v>8</v>
       </c>
-      <c r="C311" s="2" t="n">
-        <v>44185</v>
+      <c r="C311" t="s">
+        <v>318</v>
       </c>
       <c r="D311" t="n">
         <v>-14</v>
@@ -9425,8 +10849,8 @@
       <c r="B312" t="s">
         <v>8</v>
       </c>
-      <c r="C312" s="2" t="n">
-        <v>44186</v>
+      <c r="C312" t="s">
+        <v>319</v>
       </c>
       <c r="D312" t="n">
         <v>-4</v>
@@ -9454,8 +10878,8 @@
       <c r="B313" t="s">
         <v>8</v>
       </c>
-      <c r="C313" s="2" t="n">
-        <v>44187</v>
+      <c r="C313" t="s">
+        <v>320</v>
       </c>
       <c r="D313" t="n">
         <v>-1</v>
@@ -9483,8 +10907,8 @@
       <c r="B314" t="s">
         <v>8</v>
       </c>
-      <c r="C314" s="2" t="n">
-        <v>44188</v>
+      <c r="C314" t="s">
+        <v>321</v>
       </c>
       <c r="D314" t="n">
         <v>-3</v>
@@ -9512,8 +10936,8 @@
       <c r="B315" t="s">
         <v>8</v>
       </c>
-      <c r="C315" s="2" t="n">
-        <v>44189</v>
+      <c r="C315" t="s">
+        <v>322</v>
       </c>
       <c r="D315" t="n">
         <v>-80</v>
@@ -9541,8 +10965,8 @@
       <c r="B316" t="s">
         <v>8</v>
       </c>
-      <c r="C316" s="2" t="n">
-        <v>44190</v>
+      <c r="C316" t="s">
+        <v>323</v>
       </c>
       <c r="D316" t="n">
         <v>-83</v>
@@ -9570,8 +10994,8 @@
       <c r="B317" t="s">
         <v>8</v>
       </c>
-      <c r="C317" s="2" t="n">
-        <v>44191</v>
+      <c r="C317" t="s">
+        <v>324</v>
       </c>
       <c r="D317" t="n">
         <v>-79</v>
@@ -9599,8 +11023,8 @@
       <c r="B318" t="s">
         <v>8</v>
       </c>
-      <c r="C318" s="2" t="n">
-        <v>44192</v>
+      <c r="C318" t="s">
+        <v>325</v>
       </c>
       <c r="D318" t="n">
         <v>-47</v>
@@ -9628,8 +11052,8 @@
       <c r="B319" t="s">
         <v>8</v>
       </c>
-      <c r="C319" s="2" t="n">
-        <v>44193</v>
+      <c r="C319" t="s">
+        <v>326</v>
       </c>
       <c r="D319" t="n">
         <v>-35</v>
@@ -9657,8 +11081,8 @@
       <c r="B320" t="s">
         <v>8</v>
       </c>
-      <c r="C320" s="2" t="n">
-        <v>44194</v>
+      <c r="C320" t="s">
+        <v>327</v>
       </c>
       <c r="D320" t="n">
         <v>-30</v>
@@ -9686,8 +11110,8 @@
       <c r="B321" t="s">
         <v>8</v>
       </c>
-      <c r="C321" s="2" t="n">
-        <v>44195</v>
+      <c r="C321" t="s">
+        <v>328</v>
       </c>
       <c r="D321" t="n">
         <v>-16</v>
@@ -9715,8 +11139,8 @@
       <c r="B322" t="s">
         <v>8</v>
       </c>
-      <c r="C322" s="2" t="n">
-        <v>44196</v>
+      <c r="C322" t="s">
+        <v>329</v>
       </c>
       <c r="D322" t="n">
         <v>-53</v>
@@ -9744,8 +11168,8 @@
       <c r="B323" t="s">
         <v>8</v>
       </c>
-      <c r="C323" s="2" t="n">
-        <v>44197</v>
+      <c r="C323" t="s">
+        <v>330</v>
       </c>
       <c r="D323" t="n">
         <v>-79</v>
@@ -9773,8 +11197,8 @@
       <c r="B324" t="s">
         <v>8</v>
       </c>
-      <c r="C324" s="2" t="n">
-        <v>44198</v>
+      <c r="C324" t="s">
+        <v>331</v>
       </c>
       <c r="D324" t="n">
         <v>-53</v>
@@ -9802,8 +11226,8 @@
       <c r="B325" t="s">
         <v>8</v>
       </c>
-      <c r="C325" s="2" t="n">
-        <v>44199</v>
+      <c r="C325" t="s">
+        <v>332</v>
       </c>
       <c r="D325" t="n">
         <v>-43</v>
@@ -9831,8 +11255,8 @@
       <c r="B326" t="s">
         <v>8</v>
       </c>
-      <c r="C326" s="2" t="n">
-        <v>44200</v>
+      <c r="C326" t="s">
+        <v>333</v>
       </c>
       <c r="D326" t="n">
         <v>-38</v>
@@ -9860,8 +11284,8 @@
       <c r="B327" t="s">
         <v>8</v>
       </c>
-      <c r="C327" s="2" t="n">
-        <v>44201</v>
+      <c r="C327" t="s">
+        <v>334</v>
       </c>
       <c r="D327" t="n">
         <v>-39</v>
@@ -9889,8 +11313,8 @@
       <c r="B328" t="s">
         <v>8</v>
       </c>
-      <c r="C328" s="2" t="n">
-        <v>44202</v>
+      <c r="C328" t="s">
+        <v>335</v>
       </c>
       <c r="D328" t="n">
         <v>-46</v>
@@ -9918,8 +11342,8 @@
       <c r="B329" t="s">
         <v>8</v>
       </c>
-      <c r="C329" s="2" t="n">
-        <v>44203</v>
+      <c r="C329" t="s">
+        <v>336</v>
       </c>
       <c r="D329" t="n">
         <v>-44</v>
@@ -9947,8 +11371,8 @@
       <c r="B330" t="s">
         <v>8</v>
       </c>
-      <c r="C330" s="2" t="n">
-        <v>44204</v>
+      <c r="C330" t="s">
+        <v>337</v>
       </c>
       <c r="D330" t="n">
         <v>-46</v>
@@ -9976,8 +11400,8 @@
       <c r="B331" t="s">
         <v>8</v>
       </c>
-      <c r="C331" s="2" t="n">
-        <v>44205</v>
+      <c r="C331" t="s">
+        <v>338</v>
       </c>
       <c r="D331" t="n">
         <v>-51</v>
@@ -10005,8 +11429,8 @@
       <c r="B332" t="s">
         <v>8</v>
       </c>
-      <c r="C332" s="2" t="n">
-        <v>44206</v>
+      <c r="C332" t="s">
+        <v>339</v>
       </c>
       <c r="D332" t="n">
         <v>-44</v>
@@ -10034,8 +11458,8 @@
       <c r="B333" t="s">
         <v>8</v>
       </c>
-      <c r="C333" s="2" t="n">
-        <v>44207</v>
+      <c r="C333" t="s">
+        <v>340</v>
       </c>
       <c r="D333" t="n">
         <v>-42</v>
@@ -10063,8 +11487,8 @@
       <c r="B334" t="s">
         <v>8</v>
       </c>
-      <c r="C334" s="2" t="n">
-        <v>44208</v>
+      <c r="C334" t="s">
+        <v>341</v>
       </c>
       <c r="D334" t="n">
         <v>-40</v>
@@ -10092,8 +11516,8 @@
       <c r="B335" t="s">
         <v>8</v>
       </c>
-      <c r="C335" s="2" t="n">
-        <v>44209</v>
+      <c r="C335" t="s">
+        <v>342</v>
       </c>
       <c r="D335" t="n">
         <v>-44</v>
@@ -10121,8 +11545,8 @@
       <c r="B336" t="s">
         <v>8</v>
       </c>
-      <c r="C336" s="2" t="n">
-        <v>44210</v>
+      <c r="C336" t="s">
+        <v>343</v>
       </c>
       <c r="D336" t="n">
         <v>-42</v>
@@ -10150,8 +11574,8 @@
       <c r="B337" t="s">
         <v>8</v>
       </c>
-      <c r="C337" s="2" t="n">
-        <v>44211</v>
+      <c r="C337" t="s">
+        <v>344</v>
       </c>
       <c r="D337" t="n">
         <v>-46</v>
@@ -10179,8 +11603,8 @@
       <c r="B338" t="s">
         <v>8</v>
       </c>
-      <c r="C338" s="2" t="n">
-        <v>44212</v>
+      <c r="C338" t="s">
+        <v>345</v>
       </c>
       <c r="D338" t="n">
         <v>-51</v>
@@ -10208,8 +11632,8 @@
       <c r="B339" t="s">
         <v>8</v>
       </c>
-      <c r="C339" s="2" t="n">
-        <v>44213</v>
+      <c r="C339" t="s">
+        <v>346</v>
       </c>
       <c r="D339" t="n">
         <v>-41</v>
@@ -10237,8 +11661,8 @@
       <c r="B340" t="s">
         <v>8</v>
       </c>
-      <c r="C340" s="2" t="n">
-        <v>44214</v>
+      <c r="C340" t="s">
+        <v>347</v>
       </c>
       <c r="D340" t="n">
         <v>-42</v>
@@ -10266,8 +11690,8 @@
       <c r="B341" t="s">
         <v>8</v>
       </c>
-      <c r="C341" s="2" t="n">
-        <v>44215</v>
+      <c r="C341" t="s">
+        <v>348</v>
       </c>
       <c r="D341" t="n">
         <v>-42</v>
@@ -10295,8 +11719,8 @@
       <c r="B342" t="s">
         <v>8</v>
       </c>
-      <c r="C342" s="2" t="n">
-        <v>44216</v>
+      <c r="C342" t="s">
+        <v>349</v>
       </c>
       <c r="D342" t="n">
         <v>-44</v>
@@ -10324,8 +11748,8 @@
       <c r="B343" t="s">
         <v>8</v>
       </c>
-      <c r="C343" s="2" t="n">
-        <v>44217</v>
+      <c r="C343" t="s">
+        <v>350</v>
       </c>
       <c r="D343" t="n">
         <v>-42</v>
@@ -10353,8 +11777,8 @@
       <c r="B344" t="s">
         <v>8</v>
       </c>
-      <c r="C344" s="2" t="n">
-        <v>44218</v>
+      <c r="C344" t="s">
+        <v>351</v>
       </c>
       <c r="D344" t="n">
         <v>-45</v>
@@ -10382,8 +11806,8 @@
       <c r="B345" t="s">
         <v>8</v>
       </c>
-      <c r="C345" s="2" t="n">
-        <v>44219</v>
+      <c r="C345" t="s">
+        <v>352</v>
       </c>
       <c r="D345" t="n">
         <v>-50</v>
@@ -10411,8 +11835,8 @@
       <c r="B346" t="s">
         <v>8</v>
       </c>
-      <c r="C346" s="2" t="n">
-        <v>44220</v>
+      <c r="C346" t="s">
+        <v>353</v>
       </c>
       <c r="D346" t="n">
         <v>-39</v>
@@ -10440,8 +11864,8 @@
       <c r="B347" t="s">
         <v>8</v>
       </c>
-      <c r="C347" s="2" t="n">
-        <v>44221</v>
+      <c r="C347" t="s">
+        <v>354</v>
       </c>
       <c r="D347" t="n">
         <v>-40</v>
@@ -10469,8 +11893,8 @@
       <c r="B348" t="s">
         <v>8</v>
       </c>
-      <c r="C348" s="2" t="n">
-        <v>44222</v>
+      <c r="C348" t="s">
+        <v>355</v>
       </c>
       <c r="D348" t="n">
         <v>-39</v>
@@ -10498,8 +11922,8 @@
       <c r="B349" t="s">
         <v>8</v>
       </c>
-      <c r="C349" s="2" t="n">
-        <v>44223</v>
+      <c r="C349" t="s">
+        <v>356</v>
       </c>
       <c r="D349" t="n">
         <v>-43</v>
@@ -10527,8 +11951,8 @@
       <c r="B350" t="s">
         <v>8</v>
       </c>
-      <c r="C350" s="2" t="n">
-        <v>44224</v>
+      <c r="C350" t="s">
+        <v>357</v>
       </c>
       <c r="D350" t="n">
         <v>-40</v>
@@ -10556,8 +11980,8 @@
       <c r="B351" t="s">
         <v>8</v>
       </c>
-      <c r="C351" s="2" t="n">
-        <v>44225</v>
+      <c r="C351" t="s">
+        <v>358</v>
       </c>
       <c r="D351" t="n">
         <v>-39</v>
@@ -10585,8 +12009,8 @@
       <c r="B352" t="s">
         <v>8</v>
       </c>
-      <c r="C352" s="2" t="n">
-        <v>44226</v>
+      <c r="C352" t="s">
+        <v>359</v>
       </c>
       <c r="D352" t="n">
         <v>-46</v>
@@ -10614,8 +12038,8 @@
       <c r="B353" t="s">
         <v>8</v>
       </c>
-      <c r="C353" s="2" t="n">
-        <v>44227</v>
+      <c r="C353" t="s">
+        <v>360</v>
       </c>
       <c r="D353" t="n">
         <v>-36</v>
@@ -10643,8 +12067,8 @@
       <c r="B354" t="s">
         <v>8</v>
       </c>
-      <c r="C354" s="2" t="n">
-        <v>44228</v>
+      <c r="C354" t="s">
+        <v>361</v>
       </c>
       <c r="D354" t="n">
         <v>-37</v>
@@ -10672,8 +12096,8 @@
       <c r="B355" t="s">
         <v>8</v>
       </c>
-      <c r="C355" s="2" t="n">
-        <v>44229</v>
+      <c r="C355" t="s">
+        <v>362</v>
       </c>
       <c r="D355" t="n">
         <v>-37</v>
@@ -10701,8 +12125,8 @@
       <c r="B356" t="s">
         <v>8</v>
       </c>
-      <c r="C356" s="2" t="n">
-        <v>44230</v>
+      <c r="C356" t="s">
+        <v>363</v>
       </c>
       <c r="D356" t="n">
         <v>-42</v>
@@ -10730,8 +12154,8 @@
       <c r="B357" t="s">
         <v>8</v>
       </c>
-      <c r="C357" s="2" t="n">
-        <v>44231</v>
+      <c r="C357" t="s">
+        <v>364</v>
       </c>
       <c r="D357" t="n">
         <v>-40</v>
@@ -10759,8 +12183,8 @@
       <c r="B358" t="s">
         <v>8</v>
       </c>
-      <c r="C358" s="2" t="n">
-        <v>44232</v>
+      <c r="C358" t="s">
+        <v>365</v>
       </c>
       <c r="D358" t="n">
         <v>-41</v>
@@ -10788,8 +12212,8 @@
       <c r="B359" t="s">
         <v>8</v>
       </c>
-      <c r="C359" s="2" t="n">
-        <v>44233</v>
+      <c r="C359" t="s">
+        <v>366</v>
       </c>
       <c r="D359" t="n">
         <v>-47</v>
@@ -10817,8 +12241,8 @@
       <c r="B360" t="s">
         <v>8</v>
       </c>
-      <c r="C360" s="2" t="n">
-        <v>44234</v>
+      <c r="C360" t="s">
+        <v>367</v>
       </c>
       <c r="D360" t="n">
         <v>-39</v>
@@ -10846,8 +12270,8 @@
       <c r="B361" t="s">
         <v>8</v>
       </c>
-      <c r="C361" s="2" t="n">
-        <v>44235</v>
+      <c r="C361" t="s">
+        <v>368</v>
       </c>
       <c r="D361" t="n">
         <v>-40</v>
@@ -10875,8 +12299,8 @@
       <c r="B362" t="s">
         <v>8</v>
       </c>
-      <c r="C362" s="2" t="n">
-        <v>44236</v>
+      <c r="C362" t="s">
+        <v>369</v>
       </c>
       <c r="D362" t="n">
         <v>-38</v>
@@ -10904,8 +12328,8 @@
       <c r="B363" t="s">
         <v>8</v>
       </c>
-      <c r="C363" s="2" t="n">
-        <v>44237</v>
+      <c r="C363" t="s">
+        <v>370</v>
       </c>
       <c r="D363" t="n">
         <v>-38</v>
@@ -10933,8 +12357,8 @@
       <c r="B364" t="s">
         <v>8</v>
       </c>
-      <c r="C364" s="2" t="n">
-        <v>44238</v>
+      <c r="C364" t="s">
+        <v>371</v>
       </c>
       <c r="D364" t="n">
         <v>-38</v>
@@ -10962,8 +12386,8 @@
       <c r="B365" t="s">
         <v>8</v>
       </c>
-      <c r="C365" s="2" t="n">
-        <v>44239</v>
+      <c r="C365" t="s">
+        <v>372</v>
       </c>
       <c r="D365" t="n">
         <v>-38</v>
@@ -10991,8 +12415,8 @@
       <c r="B366" t="s">
         <v>8</v>
       </c>
-      <c r="C366" s="2" t="n">
-        <v>44240</v>
+      <c r="C366" t="s">
+        <v>373</v>
       </c>
       <c r="D366" t="n">
         <v>-43</v>
@@ -11020,8 +12444,8 @@
       <c r="B367" t="s">
         <v>8</v>
       </c>
-      <c r="C367" s="2" t="n">
-        <v>44241</v>
+      <c r="C367" t="s">
+        <v>374</v>
       </c>
       <c r="D367" t="n">
         <v>-27</v>
@@ -11049,8 +12473,8 @@
       <c r="B368" t="s">
         <v>8</v>
       </c>
-      <c r="C368" s="2" t="n">
-        <v>44242</v>
+      <c r="C368" t="s">
+        <v>375</v>
       </c>
       <c r="D368" t="n">
         <v>-36</v>
@@ -11078,8 +12502,8 @@
       <c r="B369" t="s">
         <v>8</v>
       </c>
-      <c r="C369" s="2" t="n">
-        <v>44243</v>
+      <c r="C369" t="s">
+        <v>376</v>
       </c>
       <c r="D369" t="n">
         <v>-37</v>
@@ -11107,8 +12531,8 @@
       <c r="B370" t="s">
         <v>8</v>
       </c>
-      <c r="C370" s="2" t="n">
-        <v>44244</v>
+      <c r="C370" t="s">
+        <v>377</v>
       </c>
       <c r="D370" t="n">
         <v>-38</v>
@@ -11136,8 +12560,8 @@
       <c r="B371" t="s">
         <v>8</v>
       </c>
-      <c r="C371" s="2" t="n">
-        <v>44245</v>
+      <c r="C371" t="s">
+        <v>378</v>
       </c>
       <c r="D371" t="n">
         <v>-37</v>
@@ -11165,8 +12589,8 @@
       <c r="B372" t="s">
         <v>8</v>
       </c>
-      <c r="C372" s="2" t="n">
-        <v>44246</v>
+      <c r="C372" t="s">
+        <v>379</v>
       </c>
       <c r="D372" t="n">
         <v>-39</v>
@@ -11194,8 +12618,8 @@
       <c r="B373" t="s">
         <v>8</v>
       </c>
-      <c r="C373" s="2" t="n">
-        <v>44247</v>
+      <c r="C373" t="s">
+        <v>380</v>
       </c>
       <c r="D373" t="n">
         <v>-46</v>
@@ -11223,8 +12647,8 @@
       <c r="B374" t="s">
         <v>8</v>
       </c>
-      <c r="C374" s="2" t="n">
-        <v>44248</v>
+      <c r="C374" t="s">
+        <v>381</v>
       </c>
       <c r="D374" t="n">
         <v>-31</v>
@@ -11252,8 +12676,8 @@
       <c r="B375" t="s">
         <v>8</v>
       </c>
-      <c r="C375" s="2" t="n">
-        <v>44249</v>
+      <c r="C375" t="s">
+        <v>382</v>
       </c>
       <c r="D375" t="n">
         <v>-34</v>
@@ -11281,8 +12705,8 @@
       <c r="B376" t="s">
         <v>8</v>
       </c>
-      <c r="C376" s="2" t="n">
-        <v>44250</v>
+      <c r="C376" t="s">
+        <v>383</v>
       </c>
       <c r="D376" t="n">
         <v>-35</v>
@@ -11310,8 +12734,8 @@
       <c r="B377" t="s">
         <v>8</v>
       </c>
-      <c r="C377" s="2" t="n">
-        <v>44251</v>
+      <c r="C377" t="s">
+        <v>384</v>
       </c>
       <c r="D377" t="n">
         <v>-37</v>
@@ -11339,8 +12763,8 @@
       <c r="B378" t="s">
         <v>8</v>
       </c>
-      <c r="C378" s="2" t="n">
-        <v>44252</v>
+      <c r="C378" t="s">
+        <v>385</v>
       </c>
       <c r="D378" t="n">
         <v>-35</v>
@@ -11368,8 +12792,8 @@
       <c r="B379" t="s">
         <v>8</v>
       </c>
-      <c r="C379" s="2" t="n">
-        <v>44253</v>
+      <c r="C379" t="s">
+        <v>386</v>
       </c>
       <c r="D379" t="n">
         <v>-33</v>
@@ -11397,8 +12821,8 @@
       <c r="B380" t="s">
         <v>8</v>
       </c>
-      <c r="C380" s="2" t="n">
-        <v>44254</v>
+      <c r="C380" t="s">
+        <v>387</v>
       </c>
       <c r="D380" t="n">
         <v>-40</v>
@@ -11426,8 +12850,8 @@
       <c r="B381" t="s">
         <v>8</v>
       </c>
-      <c r="C381" s="2" t="n">
-        <v>44255</v>
+      <c r="C381" t="s">
+        <v>388</v>
       </c>
       <c r="D381" t="n">
         <v>-27</v>
@@ -11455,8 +12879,8 @@
       <c r="B382" t="s">
         <v>8</v>
       </c>
-      <c r="C382" s="2" t="n">
-        <v>44256</v>
+      <c r="C382" t="s">
+        <v>389</v>
       </c>
       <c r="D382" t="n">
         <v>-12</v>
@@ -11484,8 +12908,8 @@
       <c r="B383" t="s">
         <v>8</v>
       </c>
-      <c r="C383" s="2" t="n">
-        <v>44257</v>
+      <c r="C383" t="s">
+        <v>390</v>
       </c>
       <c r="D383" t="n">
         <v>-17</v>
@@ -11513,8 +12937,8 @@
       <c r="B384" t="s">
         <v>8</v>
       </c>
-      <c r="C384" s="2" t="n">
-        <v>44258</v>
+      <c r="C384" t="s">
+        <v>391</v>
       </c>
       <c r="D384" t="n">
         <v>-20</v>
@@ -11542,8 +12966,8 @@
       <c r="B385" t="s">
         <v>8</v>
       </c>
-      <c r="C385" s="2" t="n">
-        <v>44259</v>
+      <c r="C385" t="s">
+        <v>392</v>
       </c>
       <c r="D385" t="n">
         <v>-19</v>
@@ -11571,8 +12995,8 @@
       <c r="B386" t="s">
         <v>8</v>
       </c>
-      <c r="C386" s="2" t="n">
-        <v>44260</v>
+      <c r="C386" t="s">
+        <v>393</v>
       </c>
       <c r="D386" t="n">
         <v>-22</v>
@@ -11600,8 +13024,8 @@
       <c r="B387" t="s">
         <v>8</v>
       </c>
-      <c r="C387" s="2" t="n">
-        <v>44261</v>
+      <c r="C387" t="s">
+        <v>394</v>
       </c>
       <c r="D387" t="n">
         <v>-28</v>
@@ -11629,8 +13053,8 @@
       <c r="B388" t="s">
         <v>8</v>
       </c>
-      <c r="C388" s="2" t="n">
-        <v>44262</v>
+      <c r="C388" t="s">
+        <v>395</v>
       </c>
       <c r="D388" t="n">
         <v>-22</v>
@@ -11658,8 +13082,8 @@
       <c r="B389" t="s">
         <v>8</v>
       </c>
-      <c r="C389" s="2" t="n">
-        <v>44263</v>
+      <c r="C389" t="s">
+        <v>396</v>
       </c>
       <c r="D389" t="n">
         <v>-18</v>
@@ -11687,8 +13111,8 @@
       <c r="B390" t="s">
         <v>8</v>
       </c>
-      <c r="C390" s="2" t="n">
-        <v>44264</v>
+      <c r="C390" t="s">
+        <v>397</v>
       </c>
       <c r="D390" t="n">
         <v>-19</v>
@@ -11716,8 +13140,8 @@
       <c r="B391" t="s">
         <v>8</v>
       </c>
-      <c r="C391" s="2" t="n">
-        <v>44265</v>
+      <c r="C391" t="s">
+        <v>398</v>
       </c>
       <c r="D391" t="n">
         <v>-23</v>
@@ -11745,8 +13169,8 @@
       <c r="B392" t="s">
         <v>8</v>
       </c>
-      <c r="C392" s="2" t="n">
-        <v>44266</v>
+      <c r="C392" t="s">
+        <v>399</v>
       </c>
       <c r="D392" t="n">
         <v>-29</v>
@@ -11774,8 +13198,8 @@
       <c r="B393" t="s">
         <v>8</v>
       </c>
-      <c r="C393" s="2" t="n">
-        <v>44267</v>
+      <c r="C393" t="s">
+        <v>400</v>
       </c>
       <c r="D393" t="n">
         <v>-26</v>
@@ -11803,8 +13227,8 @@
       <c r="B394" t="s">
         <v>8</v>
       </c>
-      <c r="C394" s="2" t="n">
-        <v>44268</v>
+      <c r="C394" t="s">
+        <v>401</v>
       </c>
       <c r="D394" t="n">
         <v>-32</v>
@@ -11832,8 +13256,8 @@
       <c r="B395" t="s">
         <v>8</v>
       </c>
-      <c r="C395" s="2" t="n">
-        <v>44269</v>
+      <c r="C395" t="s">
+        <v>402</v>
       </c>
       <c r="D395" t="n">
         <v>-19</v>
@@ -11861,8 +13285,8 @@
       <c r="B396" t="s">
         <v>8</v>
       </c>
-      <c r="C396" s="2" t="n">
-        <v>44270</v>
+      <c r="C396" t="s">
+        <v>403</v>
       </c>
       <c r="D396" t="n">
         <v>-20</v>
@@ -11890,8 +13314,8 @@
       <c r="B397" t="s">
         <v>8</v>
       </c>
-      <c r="C397" s="2" t="n">
-        <v>44271</v>
+      <c r="C397" t="s">
+        <v>404</v>
       </c>
       <c r="D397" t="n">
         <v>-17</v>
@@ -11919,8 +13343,8 @@
       <c r="B398" t="s">
         <v>8</v>
       </c>
-      <c r="C398" s="2" t="n">
-        <v>44272</v>
+      <c r="C398" t="s">
+        <v>405</v>
       </c>
       <c r="D398" t="n">
         <v>-20</v>
@@ -11948,8 +13372,8 @@
       <c r="B399" t="s">
         <v>8</v>
       </c>
-      <c r="C399" s="2" t="n">
-        <v>44273</v>
+      <c r="C399" t="s">
+        <v>406</v>
       </c>
       <c r="D399" t="n">
         <v>-19</v>
@@ -11977,8 +13401,8 @@
       <c r="B400" t="s">
         <v>8</v>
       </c>
-      <c r="C400" s="2" t="n">
-        <v>44274</v>
+      <c r="C400" t="s">
+        <v>407</v>
       </c>
       <c r="D400" t="n">
         <v>-22</v>
@@ -12006,8 +13430,8 @@
       <c r="B401" t="s">
         <v>8</v>
       </c>
-      <c r="C401" s="2" t="n">
-        <v>44275</v>
+      <c r="C401" t="s">
+        <v>408</v>
       </c>
       <c r="D401" t="n">
         <v>-29</v>
@@ -12035,8 +13459,8 @@
       <c r="B402" t="s">
         <v>8</v>
       </c>
-      <c r="C402" s="2" t="n">
-        <v>44276</v>
+      <c r="C402" t="s">
+        <v>409</v>
       </c>
       <c r="D402" t="n">
         <v>-15</v>
@@ -12064,8 +13488,8 @@
       <c r="B403" t="s">
         <v>8</v>
       </c>
-      <c r="C403" s="2" t="n">
-        <v>44277</v>
+      <c r="C403" t="s">
+        <v>410</v>
       </c>
       <c r="D403" t="n">
         <v>-18</v>
@@ -12093,8 +13517,8 @@
       <c r="B404" t="s">
         <v>8</v>
       </c>
-      <c r="C404" s="2" t="n">
-        <v>44278</v>
+      <c r="C404" t="s">
+        <v>411</v>
       </c>
       <c r="D404" t="n">
         <v>-19</v>
@@ -12122,8 +13546,8 @@
       <c r="B405" t="s">
         <v>8</v>
       </c>
-      <c r="C405" s="2" t="n">
-        <v>44279</v>
+      <c r="C405" t="s">
+        <v>412</v>
       </c>
       <c r="D405" t="n">
         <v>-21</v>
@@ -12151,8 +13575,8 @@
       <c r="B406" t="s">
         <v>8</v>
       </c>
-      <c r="C406" s="2" t="n">
-        <v>44280</v>
+      <c r="C406" t="s">
+        <v>413</v>
       </c>
       <c r="D406" t="n">
         <v>-18</v>
@@ -12180,8 +13604,8 @@
       <c r="B407" t="s">
         <v>8</v>
       </c>
-      <c r="C407" s="2" t="n">
-        <v>44281</v>
+      <c r="C407" t="s">
+        <v>414</v>
       </c>
       <c r="D407" t="n">
         <v>-21</v>
@@ -12209,8 +13633,8 @@
       <c r="B408" t="s">
         <v>8</v>
       </c>
-      <c r="C408" s="2" t="n">
-        <v>44282</v>
+      <c r="C408" t="s">
+        <v>415</v>
       </c>
       <c r="D408" t="n">
         <v>-27</v>
@@ -12238,8 +13662,8 @@
       <c r="B409" t="s">
         <v>8</v>
       </c>
-      <c r="C409" s="2" t="n">
-        <v>44283</v>
+      <c r="C409" t="s">
+        <v>416</v>
       </c>
       <c r="D409" t="n">
         <v>-21</v>
@@ -12267,8 +13691,8 @@
       <c r="B410" t="s">
         <v>8</v>
       </c>
-      <c r="C410" s="2" t="n">
-        <v>44284</v>
+      <c r="C410" t="s">
+        <v>417</v>
       </c>
       <c r="D410" t="n">
         <v>-5</v>
@@ -12296,8 +13720,8 @@
       <c r="B411" t="s">
         <v>8</v>
       </c>
-      <c r="C411" s="2" t="n">
-        <v>44285</v>
+      <c r="C411" t="s">
+        <v>418</v>
       </c>
       <c r="D411" t="n">
         <v>5</v>
@@ -12325,8 +13749,8 @@
       <c r="B412" t="s">
         <v>8</v>
       </c>
-      <c r="C412" s="2" t="n">
-        <v>44286</v>
+      <c r="C412" t="s">
+        <v>419</v>
       </c>
       <c r="D412" t="n">
         <v>18</v>
@@ -12354,8 +13778,8 @@
       <c r="B413" t="s">
         <v>8</v>
       </c>
-      <c r="C413" s="2" t="n">
-        <v>44287</v>
+      <c r="C413" t="s">
+        <v>420</v>
       </c>
       <c r="D413" t="n">
         <v>-47</v>
@@ -12383,8 +13807,8 @@
       <c r="B414" t="s">
         <v>8</v>
       </c>
-      <c r="C414" s="2" t="n">
-        <v>44288</v>
+      <c r="C414" t="s">
+        <v>421</v>
       </c>
       <c r="D414" t="n">
         <v>-54</v>
@@ -12412,8 +13836,8 @@
       <c r="B415" t="s">
         <v>8</v>
       </c>
-      <c r="C415" s="2" t="n">
-        <v>44289</v>
+      <c r="C415" t="s">
+        <v>422</v>
       </c>
       <c r="D415" t="n">
         <v>-13</v>
@@ -12441,8 +13865,8 @@
       <c r="B416" t="s">
         <v>8</v>
       </c>
-      <c r="C416" s="2" t="n">
-        <v>44290</v>
+      <c r="C416" t="s">
+        <v>423</v>
       </c>
       <c r="D416" t="n">
         <v>-46</v>
@@ -12470,8 +13894,8 @@
       <c r="B417" t="s">
         <v>8</v>
       </c>
-      <c r="C417" s="2" t="n">
-        <v>44291</v>
+      <c r="C417" t="s">
+        <v>424</v>
       </c>
       <c r="D417" t="n">
         <v>-54</v>
@@ -12499,8 +13923,8 @@
       <c r="B418" t="s">
         <v>8</v>
       </c>
-      <c r="C418" s="2" t="n">
-        <v>44292</v>
+      <c r="C418" t="s">
+        <v>425</v>
       </c>
       <c r="D418" t="n">
         <v>-3</v>
@@ -12528,8 +13952,8 @@
       <c r="B419" t="s">
         <v>8</v>
       </c>
-      <c r="C419" s="2" t="n">
-        <v>44293</v>
+      <c r="C419" t="s">
+        <v>426</v>
       </c>
       <c r="D419" t="n">
         <v>-12</v>
@@ -12557,8 +13981,8 @@
       <c r="B420" t="s">
         <v>8</v>
       </c>
-      <c r="C420" s="2" t="n">
-        <v>44294</v>
+      <c r="C420" t="s">
+        <v>427</v>
       </c>
       <c r="D420" t="n">
         <v>-14</v>
@@ -12586,8 +14010,8 @@
       <c r="B421" t="s">
         <v>8</v>
       </c>
-      <c r="C421" s="2" t="n">
-        <v>44295</v>
+      <c r="C421" t="s">
+        <v>428</v>
       </c>
       <c r="D421" t="n">
         <v>-17</v>
@@ -12615,8 +14039,8 @@
       <c r="B422" t="s">
         <v>8</v>
       </c>
-      <c r="C422" s="2" t="n">
-        <v>44296</v>
+      <c r="C422" t="s">
+        <v>429</v>
       </c>
       <c r="D422" t="n">
         <v>-18</v>
@@ -12644,8 +14068,8 @@
       <c r="B423" t="s">
         <v>8</v>
       </c>
-      <c r="C423" s="2" t="n">
-        <v>44297</v>
+      <c r="C423" t="s">
+        <v>430</v>
       </c>
       <c r="D423" t="n">
         <v>-21</v>
@@ -12673,8 +14097,8 @@
       <c r="B424" t="s">
         <v>8</v>
       </c>
-      <c r="C424" s="2" t="n">
-        <v>44298</v>
+      <c r="C424" t="s">
+        <v>431</v>
       </c>
       <c r="D424" t="n">
         <v>-9</v>
@@ -12702,8 +14126,8 @@
       <c r="B425" t="s">
         <v>8</v>
       </c>
-      <c r="C425" s="2" t="n">
-        <v>44299</v>
+      <c r="C425" t="s">
+        <v>432</v>
       </c>
       <c r="D425" t="n">
         <v>-10</v>
@@ -12731,8 +14155,8 @@
       <c r="B426" t="s">
         <v>8</v>
       </c>
-      <c r="C426" s="2" t="n">
-        <v>44300</v>
+      <c r="C426" t="s">
+        <v>433</v>
       </c>
       <c r="D426" t="n">
         <v>-11</v>
@@ -12760,8 +14184,8 @@
       <c r="B427" t="s">
         <v>8</v>
       </c>
-      <c r="C427" s="2" t="n">
-        <v>44301</v>
+      <c r="C427" t="s">
+        <v>434</v>
       </c>
       <c r="D427" t="n">
         <v>-10</v>
@@ -12789,8 +14213,8 @@
       <c r="B428" t="s">
         <v>8</v>
       </c>
-      <c r="C428" s="2" t="n">
-        <v>44302</v>
+      <c r="C428" t="s">
+        <v>435</v>
       </c>
       <c r="D428" t="n">
         <v>-13</v>
@@ -12818,8 +14242,8 @@
       <c r="B429" t="s">
         <v>8</v>
       </c>
-      <c r="C429" s="2" t="n">
-        <v>44303</v>
+      <c r="C429" t="s">
+        <v>436</v>
       </c>
       <c r="D429" t="n">
         <v>-17</v>
@@ -12847,8 +14271,8 @@
       <c r="B430" t="s">
         <v>8</v>
       </c>
-      <c r="C430" s="2" t="n">
-        <v>44304</v>
+      <c r="C430" t="s">
+        <v>437</v>
       </c>
       <c r="D430" t="n">
         <v>-3</v>
@@ -12876,8 +14300,8 @@
       <c r="B431" t="s">
         <v>8</v>
       </c>
-      <c r="C431" s="2" t="n">
-        <v>44305</v>
+      <c r="C431" t="s">
+        <v>438</v>
       </c>
       <c r="D431" t="n">
         <v>-5</v>
@@ -12905,8 +14329,8 @@
       <c r="B432" t="s">
         <v>8</v>
       </c>
-      <c r="C432" s="2" t="n">
-        <v>44306</v>
+      <c r="C432" t="s">
+        <v>439</v>
       </c>
       <c r="D432" t="n">
         <v>-3</v>
@@ -12934,8 +14358,8 @@
       <c r="B433" t="s">
         <v>8</v>
       </c>
-      <c r="C433" s="2" t="n">
-        <v>44307</v>
+      <c r="C433" t="s">
+        <v>440</v>
       </c>
       <c r="D433" t="n">
         <v>-3</v>
@@ -12963,8 +14387,8 @@
       <c r="B434" t="s">
         <v>8</v>
       </c>
-      <c r="C434" s="2" t="n">
-        <v>44308</v>
+      <c r="C434" t="s">
+        <v>441</v>
       </c>
       <c r="D434" t="n">
         <v>-4</v>
@@ -12992,8 +14416,8 @@
       <c r="B435" t="s">
         <v>8</v>
       </c>
-      <c r="C435" s="2" t="n">
-        <v>44309</v>
+      <c r="C435" t="s">
+        <v>442</v>
       </c>
       <c r="D435" t="n">
         <v>-6</v>
@@ -13021,8 +14445,8 @@
       <c r="B436" t="s">
         <v>8</v>
       </c>
-      <c r="C436" s="2" t="n">
-        <v>44310</v>
+      <c r="C436" t="s">
+        <v>443</v>
       </c>
       <c r="D436" t="n">
         <v>-7</v>
@@ -13050,8 +14474,8 @@
       <c r="B437" t="s">
         <v>8</v>
       </c>
-      <c r="C437" s="2" t="n">
-        <v>44311</v>
+      <c r="C437" t="s">
+        <v>444</v>
       </c>
       <c r="D437" t="n">
         <v>4</v>
@@ -13079,8 +14503,8 @@
       <c r="B438" t="s">
         <v>8</v>
       </c>
-      <c r="C438" s="2" t="n">
-        <v>44312</v>
+      <c r="C438" t="s">
+        <v>445</v>
       </c>
       <c r="D438" t="n">
         <v>-3</v>
@@ -13108,8 +14532,8 @@
       <c r="B439" t="s">
         <v>8</v>
       </c>
-      <c r="C439" s="2" t="n">
-        <v>44313</v>
+      <c r="C439" t="s">
+        <v>446</v>
       </c>
       <c r="D439" t="n">
         <v>0</v>
@@ -13137,8 +14561,8 @@
       <c r="B440" t="s">
         <v>8</v>
       </c>
-      <c r="C440" s="2" t="n">
-        <v>44314</v>
+      <c r="C440" t="s">
+        <v>447</v>
       </c>
       <c r="D440" t="n">
         <v>0</v>
@@ -13166,8 +14590,8 @@
       <c r="B441" t="s">
         <v>8</v>
       </c>
-      <c r="C441" s="2" t="n">
-        <v>44315</v>
+      <c r="C441" t="s">
+        <v>448</v>
       </c>
       <c r="D441" t="n">
         <v>17</v>
@@ -13195,8 +14619,8 @@
       <c r="B442" t="s">
         <v>8</v>
       </c>
-      <c r="C442" s="2" t="n">
-        <v>44316</v>
+      <c r="C442" t="s">
+        <v>449</v>
       </c>
       <c r="D442" t="n">
         <v>-41</v>
@@ -13224,8 +14648,8 @@
       <c r="B443" t="s">
         <v>8</v>
       </c>
-      <c r="C443" s="2" t="n">
-        <v>44317</v>
+      <c r="C443" t="s">
+        <v>450</v>
       </c>
       <c r="D443" t="n">
         <v>3</v>
@@ -13253,8 +14677,8 @@
       <c r="B444" t="s">
         <v>8</v>
       </c>
-      <c r="C444" s="2" t="n">
-        <v>44318</v>
+      <c r="C444" t="s">
+        <v>451</v>
       </c>
       <c r="D444" t="n">
         <v>7</v>
@@ -13282,8 +14706,8 @@
       <c r="B445" t="s">
         <v>8</v>
       </c>
-      <c r="C445" s="2" t="n">
-        <v>44319</v>
+      <c r="C445" t="s">
+        <v>452</v>
       </c>
       <c r="D445" t="n">
         <v>2</v>
@@ -13311,8 +14735,8 @@
       <c r="B446" t="s">
         <v>8</v>
       </c>
-      <c r="C446" s="2" t="n">
-        <v>44320</v>
+      <c r="C446" t="s">
+        <v>453</v>
       </c>
       <c r="D446" t="n">
         <v>-5</v>
@@ -13340,8 +14764,8 @@
       <c r="B447" t="s">
         <v>8</v>
       </c>
-      <c r="C447" s="2" t="n">
-        <v>44321</v>
+      <c r="C447" t="s">
+        <v>454</v>
       </c>
       <c r="D447" t="n">
         <v>-5</v>
@@ -13369,8 +14793,8 @@
       <c r="B448" t="s">
         <v>8</v>
       </c>
-      <c r="C448" s="2" t="n">
-        <v>44322</v>
+      <c r="C448" t="s">
+        <v>455</v>
       </c>
       <c r="D448" t="n">
         <v>1</v>
@@ -13398,8 +14822,8 @@
       <c r="B449" t="s">
         <v>8</v>
       </c>
-      <c r="C449" s="2" t="n">
-        <v>44323</v>
+      <c r="C449" t="s">
+        <v>456</v>
       </c>
       <c r="D449" t="n">
         <v>0</v>
@@ -13427,8 +14851,8 @@
       <c r="B450" t="s">
         <v>8</v>
       </c>
-      <c r="C450" s="2" t="n">
-        <v>44324</v>
+      <c r="C450" t="s">
+        <v>457</v>
       </c>
       <c r="D450" t="n">
         <v>0</v>
@@ -13456,8 +14880,8 @@
       <c r="B451" t="s">
         <v>8</v>
       </c>
-      <c r="C451" s="2" t="n">
-        <v>44325</v>
+      <c r="C451" t="s">
+        <v>458</v>
       </c>
       <c r="D451" t="n">
         <v>19</v>
@@ -13485,8 +14909,8 @@
       <c r="B452" t="s">
         <v>8</v>
       </c>
-      <c r="C452" s="2" t="n">
-        <v>44326</v>
+      <c r="C452" t="s">
+        <v>459</v>
       </c>
       <c r="D452" t="n">
         <v>4</v>
@@ -13514,8 +14938,8 @@
       <c r="B453" t="s">
         <v>8</v>
       </c>
-      <c r="C453" s="2" t="n">
-        <v>44327</v>
+      <c r="C453" t="s">
+        <v>460</v>
       </c>
       <c r="D453" t="n">
         <v>5</v>
@@ -13543,8 +14967,8 @@
       <c r="B454" t="s">
         <v>8</v>
       </c>
-      <c r="C454" s="2" t="n">
-        <v>44328</v>
+      <c r="C454" t="s">
+        <v>461</v>
       </c>
       <c r="D454" t="n">
         <v>16</v>
@@ -13572,8 +14996,8 @@
       <c r="B455" t="s">
         <v>8</v>
       </c>
-      <c r="C455" s="2" t="n">
-        <v>44329</v>
+      <c r="C455" t="s">
+        <v>462</v>
       </c>
       <c r="D455" t="n">
         <v>-27</v>
@@ -13601,8 +15025,8 @@
       <c r="B456" t="s">
         <v>8</v>
       </c>
-      <c r="C456" s="2" t="n">
-        <v>44330</v>
+      <c r="C456" t="s">
+        <v>463</v>
       </c>
       <c r="D456" t="n">
         <v>11</v>
@@ -13630,8 +15054,8 @@
       <c r="B457" t="s">
         <v>8</v>
       </c>
-      <c r="C457" s="2" t="n">
-        <v>44331</v>
+      <c r="C457" t="s">
+        <v>464</v>
       </c>
       <c r="D457" t="n">
         <v>-5</v>
@@ -13659,8 +15083,8 @@
       <c r="B458" t="s">
         <v>8</v>
       </c>
-      <c r="C458" s="2" t="n">
-        <v>44332</v>
+      <c r="C458" t="s">
+        <v>465</v>
       </c>
       <c r="D458" t="n">
         <v>8</v>
@@ -13688,8 +15112,8 @@
       <c r="B459" t="s">
         <v>8</v>
       </c>
-      <c r="C459" s="2" t="n">
-        <v>44333</v>
+      <c r="C459" t="s">
+        <v>466</v>
       </c>
       <c r="D459" t="n">
         <v>5</v>
@@ -13717,8 +15141,8 @@
       <c r="B460" t="s">
         <v>8</v>
       </c>
-      <c r="C460" s="2" t="n">
-        <v>44334</v>
+      <c r="C460" t="s">
+        <v>467</v>
       </c>
       <c r="D460" t="n">
         <v>6</v>
@@ -13746,8 +15170,8 @@
       <c r="B461" t="s">
         <v>8</v>
       </c>
-      <c r="C461" s="2" t="n">
-        <v>44335</v>
+      <c r="C461" t="s">
+        <v>468</v>
       </c>
       <c r="D461" t="n">
         <v>4</v>
@@ -13775,8 +15199,8 @@
       <c r="B462" t="s">
         <v>8</v>
       </c>
-      <c r="C462" s="2" t="n">
-        <v>44336</v>
+      <c r="C462" t="s">
+        <v>469</v>
       </c>
       <c r="D462" t="n">
         <v>6</v>
@@ -13804,8 +15228,8 @@
       <c r="B463" t="s">
         <v>8</v>
       </c>
-      <c r="C463" s="2" t="n">
-        <v>44337</v>
+      <c r="C463" t="s">
+        <v>470</v>
       </c>
       <c r="D463" t="n">
         <v>1</v>
@@ -13833,8 +15257,8 @@
       <c r="B464" t="s">
         <v>8</v>
       </c>
-      <c r="C464" s="2" t="n">
-        <v>44338</v>
+      <c r="C464" t="s">
+        <v>471</v>
       </c>
       <c r="D464" t="n">
         <v>-2</v>
@@ -13862,8 +15286,8 @@
       <c r="B465" t="s">
         <v>8</v>
       </c>
-      <c r="C465" s="2" t="n">
-        <v>44339</v>
+      <c r="C465" t="s">
+        <v>472</v>
       </c>
       <c r="D465" t="n">
         <v>-21</v>
@@ -13891,8 +15315,8 @@
       <c r="B466" t="s">
         <v>8</v>
       </c>
-      <c r="C466" s="2" t="n">
-        <v>44340</v>
+      <c r="C466" t="s">
+        <v>473</v>
       </c>
       <c r="D466" t="n">
         <v>-29</v>
@@ -13920,8 +15344,8 @@
       <c r="B467" t="s">
         <v>8</v>
       </c>
-      <c r="C467" s="2" t="n">
-        <v>44341</v>
+      <c r="C467" t="s">
+        <v>474</v>
       </c>
       <c r="D467" t="n">
         <v>8</v>
@@ -13949,8 +15373,8 @@
       <c r="B468" t="s">
         <v>8</v>
       </c>
-      <c r="C468" s="2" t="n">
-        <v>44342</v>
+      <c r="C468" t="s">
+        <v>475</v>
       </c>
       <c r="D468" t="n">
         <v>-1</v>
@@ -13978,8 +15402,8 @@
       <c r="B469" t="s">
         <v>8</v>
       </c>
-      <c r="C469" s="2" t="n">
-        <v>44343</v>
+      <c r="C469" t="s">
+        <v>476</v>
       </c>
       <c r="D469" t="n">
         <v>6</v>
@@ -14007,8 +15431,8 @@
       <c r="B470" t="s">
         <v>8</v>
       </c>
-      <c r="C470" s="2" t="n">
-        <v>44344</v>
+      <c r="C470" t="s">
+        <v>477</v>
       </c>
       <c r="D470" t="n">
         <v>5</v>
@@ -14036,8 +15460,8 @@
       <c r="B471" t="s">
         <v>8</v>
       </c>
-      <c r="C471" s="2" t="n">
-        <v>44345</v>
+      <c r="C471" t="s">
+        <v>478</v>
       </c>
       <c r="D471" t="n">
         <v>3</v>
@@ -14065,8 +15489,8 @@
       <c r="B472" t="s">
         <v>8</v>
       </c>
-      <c r="C472" s="2" t="n">
-        <v>44346</v>
+      <c r="C472" t="s">
+        <v>479</v>
       </c>
       <c r="D472" t="n">
         <v>20</v>
@@ -14094,8 +15518,8 @@
       <c r="B473" t="s">
         <v>8</v>
       </c>
-      <c r="C473" s="2" t="n">
-        <v>44347</v>
+      <c r="C473" t="s">
+        <v>480</v>
       </c>
       <c r="D473" t="n">
         <v>21</v>
@@ -14123,8 +15547,8 @@
       <c r="B474" t="s">
         <v>8</v>
       </c>
-      <c r="C474" s="2" t="n">
-        <v>44348</v>
+      <c r="C474" t="s">
+        <v>481</v>
       </c>
       <c r="D474" t="n">
         <v>17</v>
@@ -14152,8 +15576,8 @@
       <c r="B475" t="s">
         <v>8</v>
       </c>
-      <c r="C475" s="2" t="n">
-        <v>44349</v>
+      <c r="C475" t="s">
+        <v>482</v>
       </c>
       <c r="D475" t="n">
         <v>13</v>
@@ -14181,8 +15605,8 @@
       <c r="B476" t="s">
         <v>8</v>
       </c>
-      <c r="C476" s="2" t="n">
-        <v>44350</v>
+      <c r="C476" t="s">
+        <v>483</v>
       </c>
       <c r="D476" t="n">
         <v>15</v>
@@ -14210,8 +15634,8 @@
       <c r="B477" t="s">
         <v>8</v>
       </c>
-      <c r="C477" s="2" t="n">
-        <v>44351</v>
+      <c r="C477" t="s">
+        <v>484</v>
       </c>
       <c r="D477" t="n">
         <v>14</v>
